--- a/files/kb.xlsx
+++ b/files/kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levin\OneDrive\Документы\dev\Python\MalDina\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941DE154-E3D7-4355-A5B1-508F78F3179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11803AC-C5C9-413B-A826-CD303B3E88BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06C4C993-85AB-4544-B2D8-3913DAB2BB78}"/>
   </bookViews>
@@ -39,9 +39,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>отказали в  возврате товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здравствуйте. Пожалуйста, свяжитесь с нами в чате поддержки по WhatsApp 7 (962) 559-29-48. Проверим товар, если брак подтвердиться мы сделаем возврат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет заказа </t>
+  </si>
+  <si>
+    <t>Здравствуйте. мы отгружаем товар со своего склада на Вб и их логистика делает доставку. напиши в тех.поддержку самого Вб, мы не можем повлиять на скорость доставки, ни отменить ее не можем. отслеживайте его доставку в своем личном кабинете</t>
   </si>
 </sst>
 </file>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9C76FB-0E8B-4191-8625-F60C98342CCE}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,9 +438,20 @@
     <col min="2" max="2" width="41.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/files/kb.xlsx
+++ b/files/kb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levin\OneDrive\Документы\dev\Python\MalDina\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\python\Maldina_AI\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11803AC-C5C9-413B-A826-CD303B3E88BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F01B5-471F-4CA4-98B9-F2D93DA7AC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06C4C993-85AB-4544-B2D8-3913DAB2BB78}"/>
+    <workbookView xWindow="31114" yWindow="0" windowWidth="14915" windowHeight="11709" xr2:uid="{06C4C993-85AB-4544-B2D8-3913DAB2BB78}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,2350 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>отказали в  возврате товара</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="779">
   <si>
     <t xml:space="preserve"> Здравствуйте. Пожалуйста, свяжитесь с нами в чате поддержки по WhatsApp 7 (962) 559-29-48. Проверим товар, если брак подтвердиться мы сделаем возврат</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет заказа </t>
-  </si>
-  <si>
-    <t>Здравствуйте. мы отгружаем товар со своего склада на Вб и их логистика делает доставку. напиши в тех.поддержку самого Вб, мы не можем повлиять на скорость доставки, ни отменить ее не можем. отслеживайте его доставку в своем личном кабинете</t>
+    <t xml:space="preserve">Здравствуйте. мы отгружаем товар со своего склада на Вб и их логистика делает доставку. напиши в тех.поддержку самого Вб, мы не можем повлиять на скорость доставки, ни отменить ее не можем. отслеживайте его доставку в своем личном кабинете.  Здравствуйте. мы отгружаем весь наш товар со своего склада на ВБ и он там хранится, а сам Валберис осуществляет доставку до покупателя по средством своей логистики, мы на это повлиять ни каким образом не можем и не видим как идет заказанный товар пока вы его не выкупите на ПВЗ. отслеживайте доставку в своем личном кабинете. и можете задать этот вопрос тех.поддержке самого Валбериса </t>
+  </si>
+  <si>
+    <t>Что нужно хранить для гарантии? Что нужно для гарантии?</t>
+  </si>
+  <si>
+    <t>Здравствуйте. с самого начала просим проверять комплектацию и внешний брак (сколы/трещины и пр.) сразу на ПВЗ не забирая ее домой. Далее желательно всё (коробку с QRкодом от ВБ) хранить в течение 14 дней. Потом гарантийное обслуживание происходит в течение года либо по обращению в наш чат поддержки WhatsApp 7 (962) 559-29-48, либо по заявке на возврат через личный кабинет вб</t>
+  </si>
+  <si>
+    <t>Здравствуйте. всеми финансовыми возвратами занимается сам валберис. не мы. мы продаем на его площадке. напишите в тех. поддержку самого валберис пожалуйста и уточните. у вех разные условия покупок (кто-то покупает по кредитной карте ВБ, кто то дебетовой картой оплачивает)</t>
+  </si>
+  <si>
+    <t>Такой товар халяль?</t>
+  </si>
+  <si>
+    <t>Как использовать лампу как колонку?</t>
+  </si>
+  <si>
+    <t>Отказали в возврате товара</t>
+  </si>
+  <si>
+    <t>Мне отказали в возврате товара, что делать?</t>
+  </si>
+  <si>
+    <t>Почему мне не вернули товар?</t>
+  </si>
+  <si>
+    <t>Можно ли вернуть товар, если отказали?</t>
+  </si>
+  <si>
+    <t>Долгая доставка?</t>
+  </si>
+  <si>
+    <t>Когда планируется доствка?</t>
+  </si>
+  <si>
+    <t>Приедет в тот день когда и указано?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет заказа   </t>
+  </si>
+  <si>
+    <t>Почему перенесли доставку?</t>
+  </si>
+  <si>
+    <t>Вы вернули деньги?</t>
+  </si>
+  <si>
+    <t>Как вернуть деньги?</t>
+  </si>
+  <si>
+    <t>Почему деньги не вернули?</t>
+  </si>
+  <si>
+    <t>Когда вернут деньги за заказ?</t>
+  </si>
+  <si>
+    <t>Куда обращаться по возврату денег?</t>
+  </si>
+  <si>
+    <t>Адрес вашего склада</t>
+  </si>
+  <si>
+    <t>Где находится ваш склад?</t>
+  </si>
+  <si>
+    <t>Куда приезжать чтобы забрать товар?</t>
+  </si>
+  <si>
+    <t>Местоположение склада</t>
+  </si>
+  <si>
+    <t>Какой у вас адрес склада?</t>
+  </si>
+  <si>
+    <t>Наш склад находится по адресу: г. Казань, 1-я Вольская, д. 32.</t>
+  </si>
+  <si>
+    <t>Адрес вашего офиса</t>
+  </si>
+  <si>
+    <t>Где находится ваш офис?</t>
+  </si>
+  <si>
+    <t>Какой у вас адрес офиса?</t>
+  </si>
+  <si>
+    <t>Местоположение офиса</t>
+  </si>
+  <si>
+    <t>Куда приезжать в ваш офис?</t>
+  </si>
+  <si>
+    <t>Наш офис находится по адресу: г. Казань, Сибирский тракт, д. 78, этаж 2, офис 216.</t>
+  </si>
+  <si>
+    <t>Где можно забрать товар в Казани?</t>
+  </si>
+  <si>
+    <t>Адрес самовывоза в Казани</t>
+  </si>
+  <si>
+    <t>Самовывоз Казань</t>
+  </si>
+  <si>
+    <t>Как забрать заказ в Казани?</t>
+  </si>
+  <si>
+    <t>Где находится пункт выдачи в Казани?","Вы можете забрать товар в Казани по одному из адресов: Склад: г. Казань, 1-я Вольская, д. 32  Офис: г. Казань, Сибирский тракт, д. 78, этаж 2, офис 216. Перед приездом, пожалуйста, предварительно свяжитесь с нами, чтобы уточнить время. Телефон для связи: +7 (995) 366-60-85</t>
+  </si>
+  <si>
+    <t>Все не так как описывается</t>
+  </si>
+  <si>
+    <t>Товар не соответствует описанию</t>
+  </si>
+  <si>
+    <t>Получил товар, он не такой как в описании</t>
+  </si>
+  <si>
+    <t>Почему товар отличается от описания?</t>
+  </si>
+  <si>
+    <t>Что делать, если товар не соответствует описанию?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Благодарим вас за отзыв о нашем товаре. Нам очень жаль, что ваши ожидания не оправдались. Чтобы мы могли разобраться в ситуации подробнее, пожалуйста, уточните, что именно не соответствует описанию. Вы также можете связаться с нашей службой поддержки по WhatsApp: +7 (962) 559-29-48. С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Нет инструкции</t>
+  </si>
+  <si>
+    <t>У меня нет инструкции к лампе</t>
+  </si>
+  <si>
+    <t>Где взять инструкцию к лампе?</t>
+  </si>
+  <si>
+    <t>Как получить инструкцию?</t>
+  </si>
+  <si>
+    <t>Инструкции нет, что делать?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Приносим извинения за неудобства. Пожалуйста, свяжитесь с нашей службой поддержки в WhatsApp: +7 (962) 559-29-48 — мы отправим вам инструкцию и ответим на все вопросы по функционалу лампы.</t>
+  </si>
+  <si>
+    <t>Что нужно хранить для гарантии?</t>
+  </si>
+  <si>
+    <t>Подскажите, пожалуйста, что нужно хранить для гарантии?</t>
+  </si>
+  <si>
+    <t>Какие документы нужны для гарантии?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Для гарантии рекомендуем сразу на пункте выдачи проверить комплектацию и отсутствие внешних повреждений (сколы, трещины и т.п.), не забирая товар домой. Далее желательно сохранить коробку с QR-кодом от Wildberries в течение 14 дней. Гарантийное обслуживание действует в течение года: вы можете обратиться в наш чат поддержки WhatsApp: +7 (962) 559-29-48 или оформить заявку на возврат через личный кабинет Wildberries.</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе режим повтора суры для заучивания?</t>
+  </si>
+  <si>
+    <t>Подскажите, есть ли повтор суры в лампе?</t>
+  </si>
+  <si>
+    <t>Можно ли включить повтор суры?</t>
+  </si>
+  <si>
+    <t>Как включить повтор суры на лампе?</t>
+  </si>
+  <si>
+    <t>Есть ли функция повторного воспроизведения суры?</t>
+  </si>
+  <si>
+    <t>Да, в лампе есть режим повтора. На пульте предусмотрена кнопка 'Повтор' — при её нажатии можно воспроизводить один и тот же фрагмент несколько раз. Если возникнут дополнительные вопросы по использованию, вы можете обратиться в наш чат поддержки (номер телефона указан на визитке или в инструкции).</t>
+  </si>
+  <si>
+    <t>Нажимаю, но переводит только Коран, хадисы и тафсиры не переводит</t>
+  </si>
+  <si>
+    <t>Почему переводит только Коран, а хадисы и тафсиры нет?</t>
+  </si>
+  <si>
+    <t>Лампа переводит хадисы и тафсиры?</t>
+  </si>
+  <si>
+    <t>Есть ли перевод хадисов в лампе?</t>
+  </si>
+  <si>
+    <t>Можно ли включить перевод тафсиров?</t>
+  </si>
+  <si>
+    <t>Лампа поддерживает перевод только Корана. Тафсиры и хадисы в переводе недоступны.</t>
+  </si>
+  <si>
+    <t>Можно заряжать лампу быстрой зарядкой?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли лампа быструю зарядку?</t>
+  </si>
+  <si>
+    <t>Будет ли лампа быстрее заряжаться от мощного блока питания?</t>
+  </si>
+  <si>
+    <t>Можно ли подключать лампу к зарядке 45 Вт или 65 Вт?</t>
+  </si>
+  <si>
+    <t>Поддерживается ли зарядка через мощный адаптер?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! В лампе нет функции быстрой зарядки. Если использовать блок питания 45–65 Вт, заряжать можно, но скорость зарядки от этого не увеличится.</t>
+  </si>
+  <si>
+    <t>Покупала у вас лампу, но не могу включить без Bluetooth</t>
+  </si>
+  <si>
+    <t>Не могу включить лампу без Bluetooth</t>
+  </si>
+  <si>
+    <t>Лампа включается только через Bluetooth, это нормально?</t>
+  </si>
+  <si>
+    <t>Почему лампа работает только с Bluetooth?</t>
+  </si>
+  <si>
+    <t>Как включить лампу без Bluetooth?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Возможны разные причины: лампа может быть включена неверно (пожалуйста, проверьте инструкцию), либо иметь скрытый брак. Чтобы мы могли помочь, отправьте нам видео в чат поддержки WhatsApp: +7 (962) 559-29-48. Мы постараемся разобраться и предложить решение. Если подтвердится брак — будет оформлен возврат. С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Как удалить отзыв в ВБ?</t>
+  </si>
+  <si>
+    <t>Можно ли удалить отзыв о товаре в ВБ?</t>
+  </si>
+  <si>
+    <t>Хочу убрать отзыв с Wildberries, как это сделать?</t>
+  </si>
+  <si>
+    <t>Где удалить отзыв в приложении ВБ?</t>
+  </si>
+  <si>
+    <t>Удалить или изменить отзыв на Wildberries можно следующим образом: — Через компьютер: войдите в личный кабинет → Профиль → Отзывы и вопросы → Отзывы → выберите нужный отзыв → нажмите на три точки → 'Удалить'.  — Через телефон: войдите в личный кабинет → Отзывы и вопросы → Отзывы → 'Дополнить отзыв' → введите новый текст (можно коротко) и при желании измените количество звёзд. Если у вас возникнут сложности, напишите в чат поддержки Wildberries</t>
+  </si>
+  <si>
+    <t>Не могу включить лампу цилиндр без часов</t>
+  </si>
+  <si>
+    <t>Лампа цилиндр без часов не включается</t>
+  </si>
+  <si>
+    <t>Почему не включается лампа цилиндр без часов?</t>
+  </si>
+  <si>
+    <t>Что делать, если лампа цилиндр без часов не включается?</t>
+  </si>
+  <si>
+    <t>Как включить лампу цилиндр без часов?</t>
+  </si>
+  <si>
+    <t>Как включить лампу цилиндр без часов?","Здравствуйте! Давайте попробуем пошагово:  
+1. Зарядите лампу около 2 часов (возможно, она не заряжена).  
+2. Включите кнопку питания на самой лампе (крайняя слева).  
+3. Для переключения цвета прикоснитесь к лампе сверху или используйте пульт/приложение.  
+4. Вставьте батарейки в пульт.  
+5. Нажмите несколько раз кнопку питания на пульте.  
+6. Установите громкость на максимум на пульте (иногда на производстве звук отключён).  
+Если после этих шагов лампа не включается — отправьте нам видео в WhatsApp: +7 (962) 559-29-48, мы разберёмся в причине.</t>
+  </si>
+  <si>
+    <t>Хотим подарок</t>
+  </si>
+  <si>
+    <t>Как получить подарок?</t>
+  </si>
+  <si>
+    <t>Дарите ли вы подарки покупателям?</t>
+  </si>
+  <si>
+    <t>Можно ли получить подарок за отзыв?</t>
+  </si>
+  <si>
+    <t>Даете ли вы подарок за покупку?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Пожалуйста, пришлите скриншот отзыва на приобретённый товар, и мы незамедлительно отправим вам небольшой денежный подарок. Если вы ещё не оставляли отзыв — будем очень благодарны, если сделаете его с фото или видео. С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Звук на лампе стерео или моно?</t>
+  </si>
+  <si>
+    <t>Подскажите, пожалуйста, лампа воспроизводит стерео или моно?</t>
+  </si>
+  <si>
+    <t>Есть ли варианты лампы со стереозвуком?</t>
+  </si>
+  <si>
+    <t>Лампа играет в стерео?</t>
+  </si>
+  <si>
+    <t>Есть ли стереозвук у лампы?</t>
+  </si>
+  <si>
+    <t>Во всех наших лампах используется моно-звучание.</t>
+  </si>
+  <si>
+    <t>Какая модель пульта идёт на арабском?</t>
+  </si>
+  <si>
+    <t>Есть ли у лампы пульт с арабскими подписями?</t>
+  </si>
+  <si>
+    <t>Какие лампы идут с пультом на арабском языке?</t>
+  </si>
+  <si>
+    <t>У какой лампы пульт с арабскими надписями?</t>
+  </si>
+  <si>
+    <t>Где купить лампу с пультом на арабском?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! К сожалению, выбранная вами модель комплектуется только пультом на русском языке. Лампы 'Луна' и 'Вселенная' тоже идут с пультом на русском. А вот лампы-цилиндры комплектуются пультом на английском языке с подписями на арабском снизу. Например, лампа с артикулом 464097890 на Ozon. Будем рады вашим покупкам! С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Как слушать лампу на русском?</t>
+  </si>
+  <si>
+    <t>Можно ли включить русский язык на лампе?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе русский язык?</t>
+  </si>
+  <si>
+    <t>Почему не нахожу русский язык в настройках?</t>
+  </si>
+  <si>
+    <t>Как включить перевод Корана на русский язык?</t>
+  </si>
+  <si>
+    <t>Да, функция русского языка есть. Часто возникает путаница: при настройке пользователи нажимают на выбор языков интерфейса (там доступны только английский и арабский). Чтобы включить русский язык, нужно выбрать его в разделе 'языки перевода'. После этого лампа будет воспроизводить на русском.</t>
+  </si>
+  <si>
+    <t>Не можем скачать приложение, оно открывается как картинка</t>
+  </si>
+  <si>
+    <t>QR-код открывается как картинка, а не скачивается приложение</t>
+  </si>
+  <si>
+    <t>Не получается скачать приложение по QR-коду</t>
+  </si>
+  <si>
+    <t>Что делать, если приложение не скачивается?</t>
+  </si>
+  <si>
+    <t>Почему вместо приложения по QR-коду открывается картинка?</t>
+  </si>
+  <si>
+    <t>Если при сканировании QR-кода приложение открывается как картинка, попробуйте включить VPN и снова перейти по ссылке. После этого скачивание должно начаться корректно.</t>
+  </si>
+  <si>
+    <t>Скажите, пожалуйста, а 'Бакара' есть в списке нашидов?</t>
+  </si>
+  <si>
+    <t>Есть ли сура Бакара в лампе?</t>
+  </si>
+  <si>
+    <t>Входит ли сура Бакара в список сур?</t>
+  </si>
+  <si>
+    <t>Можно ли включить суру Бакара на лампе?</t>
+  </si>
+  <si>
+    <t>Сура Бакара есть среди сур в лампе?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Сура «Аль-Бакара» входит в список сур Корана. Она доступна для прослушивания в лампе.</t>
+  </si>
+  <si>
+    <t>Заряжала несколько часов, но не видно индикатора зарядки</t>
+  </si>
+  <si>
+    <t>Не видно, заряжается ли лампа</t>
+  </si>
+  <si>
+    <t>Есть ли индикатор зарядки у лампы?</t>
+  </si>
+  <si>
+    <t>Как понять, что лампа зарядилась?</t>
+  </si>
+  <si>
+    <t>Лампа не показывает уровень заряда, что делать?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Во время зарядки лампа мигает зелёным цветом. Когда аккумулятор полностью заряжен — лампа горит зелёным без мигания. Подробный алгоритм указан в инструкции, которая идёт в комплекте. Если возникнут трудности или вопросы, пожалуйста, свяжитесь с нашей службой поддержки в будние дни — мы обязательно поможем.</t>
+  </si>
+  <si>
+    <t>Как включить не однотонную подсветку в лампе Луна?</t>
+  </si>
+  <si>
+    <t>Как включить разноцветную подсветку в лампе Луна?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе Луна режим смены цветов?</t>
+  </si>
+  <si>
+    <t>Можно ли сделать, чтобы лампа Луна переливалась разными цветами?</t>
+  </si>
+  <si>
+    <t>Как работает режим разноцветной подсветки у лампы Луна?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! В лампе 'Луна' можно включить режим смены цветов. Для этого используйте пульт или сенсорное управление: нажмите кнопку переключения режимов подсветки, и лампа начнёт плавно менять цвета. Все наши лампы продаются под брендом MalDina Lamps напрямую с завода. Ждём вас за новыми покупками! С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Здравствуйте, эта лампа оригинал?</t>
+  </si>
+  <si>
+    <t>Эта лампа оригинальная?</t>
+  </si>
+  <si>
+    <t>Подскажите, лампа оригинал или копия?</t>
+  </si>
+  <si>
+    <t>Лампа MalDina оригинальная?</t>
+  </si>
+  <si>
+    <t>Это оригинальная лампа MalDina?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Все наши лампы продаются под брендом MalDina Lamps. Мы работаем напрямую с заводом-производителем и являемся первыми поставщиками. Можете быть уверены в оригинальности продукции. Ждём вас за покупками в нашем магазине! С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Можно ли выключить свет, чтобы лампа играла только как колонка?</t>
+  </si>
+  <si>
+    <t>Лампа может играть без света?</t>
+  </si>
+  <si>
+    <t>Как отключить свет в лампе и оставить только музыку?</t>
+  </si>
+  <si>
+    <t>Можно ли сделать, чтобы лампа работала без подсветки?</t>
+  </si>
+  <si>
+    <t>Как убрать подсветку и оставить только звук на лампе?</t>
+  </si>
+  <si>
+    <t>Да, можно. Чтобы полностью выключить свет, нажимайте на пульте кнопку изменения яркости до тех пор, пока подсветка полностью не погаснет. При этом лампа продолжит работать как колонка.</t>
+  </si>
+  <si>
+    <t>Как получить инструкцию для лампы Луна и Вселенная?</t>
+  </si>
+  <si>
+    <t>Где найти инструкцию для лампы Луна и Вселенная?</t>
+  </si>
+  <si>
+    <t>Инструкция к лампе Луна и Вселенная</t>
+  </si>
+  <si>
+    <t>Можно скачать инструкцию к лампе Луна и Вселенная?</t>
+  </si>
+  <si>
+    <t>Подскажите, где инструкция к лампам Луна и Вселенная?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Инструкция для ламп 'Луна' и 'Вселенная' доступна по ссылке: https://disk.yandex.ru/i/Gc3mKuW4immCgw. Пожалуйста, проверьте — иногда инструкция есть внизу коробки или напечатана мелким шрифтом.</t>
+  </si>
+  <si>
+    <t>Как получить инструкцию к лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Где скачать инструкцию для лампы цилиндр?</t>
+  </si>
+  <si>
+    <t>Инструкция к лампе цилиндр с часами</t>
+  </si>
+  <si>
+    <t>Можно получить инструкцию на лампу цилиндр?</t>
+  </si>
+  <si>
+    <t>Подскажите, где инструкция к лампе цилиндр с часами?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Инструкция для лампы-цилиндра с часами доступна по ссылке: https://disk.yandex.ru/d/bGEIhc_YQn_LmQ. Пожалуйста, проверьте — иногда инструкция есть внизу коробки или напечатана мелким шрифтом.</t>
+  </si>
+  <si>
+    <t>Почему пульт такой дорогой?</t>
+  </si>
+  <si>
+    <t>Почему пульт стоит дорого?</t>
+  </si>
+  <si>
+    <t>Подскажите, пульт действительно такой дорогой?</t>
+  </si>
+  <si>
+    <t>Почему пульт к лампе стоит так дорого?</t>
+  </si>
+  <si>
+    <t>Можно ли купить пульт дешевле?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Цена пульта связана с его стоимостью у производителя. Рекомендуем подписаться на наш магазин — во время акций можно приобрести пульт по более выгодной цене. Если ваш пульт вышел из строя и лампа была куплена у нас, то в период гарантии мы заменим пульт бесплатно.</t>
+  </si>
+  <si>
+    <t>Скажите, пожалуйста, нужно ли каждый раз заряжать лампу?</t>
+  </si>
+  <si>
+    <t>Нужно ли заряжать лампу после каждого использования?</t>
+  </si>
+  <si>
+    <t>Как понять, что лампу пора заряжать?</t>
+  </si>
+  <si>
+    <t>Сколько времени заряжается лампа?</t>
+  </si>
+  <si>
+    <t>Как узнать, что лампа полностью заряжена?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Во время зарядки лампа мигает примерно 4 часа. Когда аккумулятор полностью заряжен — лампа перестаёт мигать и просто светится.</t>
+  </si>
+  <si>
+    <t>Есть гарантия, что лампа не взорвётся?</t>
+  </si>
+  <si>
+    <t>Лампа может взорваться?</t>
+  </si>
+  <si>
+    <t>Насколько безопасна лампа?</t>
+  </si>
+  <si>
+    <t>Бывает ли, что лампы взрываются?</t>
+  </si>
+  <si>
+    <t>Можно ли быть уверенным, что лампа не взорвётся?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Мы продаём эти лампы уже несколько лет и уверены в их безопасности. Таких проблем не возникает.</t>
+  </si>
+  <si>
+    <t>Как настроить часы на лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Как установить время на лампе цилиндр с часами?</t>
+  </si>
+  <si>
+    <t>Как выставить часы на лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Как поменять время на лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Инструкция по настройке часов на лампе цилиндр</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Чтобы настроить часы на лампе-цилиндре, выполните следующие шаги: 1. Нажмите и удерживайте кнопку 'M'. 2. Кнопкой '+' установите часы. 3. Снова нажмите и удерживайте кнопку 'M'. 4. Кнопкой '+' установите минуты. После этого часы будут настроены.</t>
+  </si>
+  <si>
+    <t>Какие кнопки управления на самой лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Кнопки на лампе цилиндр</t>
+  </si>
+  <si>
+    <t>Что означают кнопки на лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Какие функции у кнопок на лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Как управлять лампой цилиндр без пульта?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! На лампе-цилиндре расположены кнопки (слева направо):   1. Смена режима: чтение Корана / Bluetooth. Также используется для установки времени.   2. Короткое нажатие — выбор предыдущей суры. Долгое нажатие — уменьшение громкости. Также используется для установки часов.   3. Короткое нажатие — выбор следующей суры. Долгое нажатие — увеличение громкости.   4. Кнопка включения. Когда лампа включена — отвечает за паузу/воспроизведение.   Подробная схема кнопок есть в карточке товара. С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Как отключить перевод, чтобы лампа читала только на арабском?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать Коран без перевода, только на арабском?</t>
+  </si>
+  <si>
+    <t>Как отключить перевод сур в лампе?</t>
+  </si>
+  <si>
+    <t>Есть ли режим чтения Корана без перевода?</t>
+  </si>
+  <si>
+    <t>Как сделать, чтобы лампа читала Коран на арабском без перевода?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Полностью интерфейс на арабский переключить нельзя. Но сами суры можно слушать без перевода — чисто на арабском. Для этого на пульте нажмите кнопку 'Режим' и выберите режим одиночного чтения.</t>
+  </si>
+  <si>
+    <t>Какое приложение установить для Android? Не могу найти по коду</t>
+  </si>
+  <si>
+    <t>Какое приложение скачать для лампы на Android?</t>
+  </si>
+  <si>
+    <t>Не могу найти приложение для Android, что установить?</t>
+  </si>
+  <si>
+    <t>Как называется приложение для Android к лампе?</t>
+  </si>
+  <si>
+    <t>Где скачать приложение Koran Player для Android?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Для лампы используется приложение Koran Player. Если вам нужна ссылка для скачивания — напишите нам в чат поддержки в WhatsApp: +7 (962) 559-29-48.</t>
+  </si>
+  <si>
+    <t>Как подключить колонку-лампу шар к приложению?</t>
+  </si>
+  <si>
+    <t>Как подключить лампу-шар к приложению?</t>
+  </si>
+  <si>
+    <t>Как соединить лампу-шар с телефоном через приложение?</t>
+  </si>
+  <si>
+    <t>Как подключить лампу-шар к телефону через Bluetooth и приложение?</t>
+  </si>
+  <si>
+    <t>Инструкция по подключению лампы-шар к приложению Koran Player</t>
+  </si>
+  <si>
+    <t>Инструкция по подключению лампы-шар к приложению Koran Player","Здравствуйте! Для подключения лампы-шар к приложению выполните следующие шаги:   1. Зарядите лампу около 2 часов.   2. Включите лампу, прикоснувшись к сенсорной кнопке (1–2 секунды) возле разъёма, чтобы загорелась подсветка.   3. Скачайте приложение Koran Player по QR-коду с коробки или из инструкции.     • Для Android — в Google Play Store.  • Для iPhone/iPad — в App Store.   4. Включите Bluetooth на телефоне и перейдите в настройки Bluetooth.   5. Запустите поиск новых устройств.   6. В списке выберите устройство 'Sq-168' и подтвердите сопряжение.   7. После появления лампы в списке сопряжённых устройств откройте приложение Koran Player.   8. Нажмите значок настроек (самый правый), затем значок Bluetooth.   9. В появившемся списке выберите '168' (название лампы) и подключитесь.   Если что-то не получится — напишите нам в чат поддержки WhatsApp: +7 (962) 559-29-48, мы обязательно поможем.</t>
+  </si>
+  <si>
+    <t>Как подключить колонку-лампу цилиндр к приложению?</t>
+  </si>
+  <si>
+    <t>Как подключить лампу цилиндр к приложению Koran Player?</t>
+  </si>
+  <si>
+    <t>Как подключить лампу цилиндр через Bluetooth к телефону?</t>
+  </si>
+  <si>
+    <t>Инструкция по подключению лампы цилиндр к приложению</t>
+  </si>
+  <si>
+    <t>Как соединить лампу цилиндр с приложением на телефоне?</t>
+  </si>
+  <si>
+    <t>Как соединить лампу цилиндр с приложением на телефоне?","Здравствуйте! Чтобы подключить лампу-цилиндр к приложению, выполните следующие шаги:   1. Зарядите лампу около 2 часов.   2. Включите лампу кнопкой «вкл.» (крайняя слева).   3. Для переключения цвета прикоснитесь к лампе сверху или используйте пульт (вставьте батарейки и включите его).   4. Скачайте приложение Koran Player по QR-коду с коробки/инструкции или найдите его в Google Play (Android) / App Store (iOS).   5. Включите Bluetooth на телефоне и перейдите в настройки.   6. Запустите поиск новых устройств.   7. В списке выберите «Sq-112» и подтвердите сопряжение.   8. После появления лампы в списке сопряжённых устройств откройте приложение Koran Player.   9. Нажмите значок настроек (самый правый), затем значок Bluetooth.   10. Выберите «112» (название лампы) и подключитесь.  Если что-то не получится или появятся вопросы — напишите нам в чат поддержки WhatsApp: +7 (962) 559-29-48, мы поможем.</t>
+  </si>
+  <si>
+    <t>Как установить приложение для лампы?</t>
+  </si>
+  <si>
+    <t>Какое приложение нужно установить для лампы?</t>
+  </si>
+  <si>
+    <t>Где скачать приложение Koran Player?</t>
+  </si>
+  <si>
+    <t>Как загрузить приложение для управления лампой?</t>
+  </si>
+  <si>
+    <t>Какое приложение скачать для управления лампой?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Для работы с лампой используется приложение Koran Player. Найдите и установите его в магазине приложений:• Android — Google Play Store • iPhone/iPad — App Store.</t>
+  </si>
+  <si>
+    <t>Ссылки для установки приложения</t>
+  </si>
+  <si>
+    <t>Ссылки на приложение для Android и iOS</t>
+  </si>
+  <si>
+    <t>Как установить Koran Player на телефон?</t>
+  </si>
+  <si>
+    <t>Приложение Koran Player — где скачать?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Вот официальные ссылки для установки приложения Koran Player:  • Android: https://equantu.com/uploads/KoranPlayer.apk • iOS: https://apps.apple.com/cn/app/id1525651222</t>
+  </si>
+  <si>
+    <t>Установил мобильное приложение. Есть там русский язык?</t>
+  </si>
+  <si>
+    <t>Есть ли русский язык в приложении Koran Player?</t>
+  </si>
+  <si>
+    <t>Приложение поддерживает русский язык?</t>
+  </si>
+  <si>
+    <t>Можно ли переключить приложение на русский язык?</t>
+  </si>
+  <si>
+    <t>Русский язык есть в мобильном приложении для лампы?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! В приложении язык интерфейса доступен только на английском. Однако переводы сур внутри лампы можно выбрать на русском языке.</t>
+  </si>
+  <si>
+    <t>Ссылка на видео подключения лампы</t>
+  </si>
+  <si>
+    <t>Где посмотреть видео, как подключить лампу?</t>
+  </si>
+  <si>
+    <t>У вас есть видео по настройке лампы?</t>
+  </si>
+  <si>
+    <t>Можно ссылку на видео подключения лампы?</t>
+  </si>
+  <si>
+    <t>Видеоинструкция как подключить лампу</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Вот видео-инструкция по подключению лампы: https://youtu.be/WozsmtCb7zQ?si=IZdubb_HSb9FnCPR</t>
+  </si>
+  <si>
+    <t>Можно пользоваться лампой без скачивания приложения?</t>
+  </si>
+  <si>
+    <t>Обязательно ли скачивать приложение для работы лампы?</t>
+  </si>
+  <si>
+    <t>Будет ли работать лампа без приложения?</t>
+  </si>
+  <si>
+    <t>Лампа работает без приложения, если есть только пульт?</t>
+  </si>
+  <si>
+    <t>Можно ли включать и пользоваться лампой без приложения?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, вы можете пользоваться лампой только через пульт, без установки приложения.</t>
+  </si>
+  <si>
+    <t>Чей перевод на русский используется в лампе?</t>
+  </si>
+  <si>
+    <t>Кто сделал перевод Корана на русский язык в лампе?</t>
+  </si>
+  <si>
+    <t>Чей перевод Корана встроен в лампу?</t>
+  </si>
+  <si>
+    <t>Кем выполнен перевод Корана на русский язык в приложении/лампе?</t>
+  </si>
+  <si>
+    <t>Перевод Корана в лампе чей?</t>
+  </si>
+  <si>
+    <t>Перевод является трудом известного азербайджанского учёного Эльмира Кулиева.</t>
+  </si>
+  <si>
+    <t>Скажите, пожалуйста, что написано на самой лампе?</t>
+  </si>
+  <si>
+    <t>Какая надпись есть на лампе?</t>
+  </si>
+  <si>
+    <t>Что написано на корпусе лампы?</t>
+  </si>
+  <si>
+    <t>Какая арабская надпись на лампе?</t>
+  </si>
+  <si>
+    <t>Надпись на лампе — что означает?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! На корпусе лампы написано: «Аль-Куръанил Карим» (Священный Коран).</t>
+  </si>
+  <si>
+    <t>На ПВЗ можно проверить товар? Что если проверить дома?</t>
+  </si>
+  <si>
+    <t>Можно ли проверить товар на пункте выдачи заказов?</t>
+  </si>
+  <si>
+    <t>Если проверить товар дома, будет ли возврат?</t>
+  </si>
+  <si>
+    <t>Можно проверить заказ при получении?</t>
+  </si>
+  <si>
+    <t>Что делать, если товар проверил дома и есть проблема?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Рекомендуем всегда проверять товар прямо на ПВЗ при получении. Если обнаружится брак — товар примем на возврат. Если что-то не получается включить или настроить, пожалуйста, напишите нам через чат с покупателями — мы обязательно поможем.</t>
+  </si>
+  <si>
+    <t>Можно вернуть лампу спустя год после покупки?</t>
+  </si>
+  <si>
+    <t>Какой срок гарантии на лампы?</t>
+  </si>
+  <si>
+    <t>Можно ли вернуть лампу через год?</t>
+  </si>
+  <si>
+    <t>Сколько действует гарантия на лампу?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! На лампы предоставляется гарантия 1 год. Пожалуйста, проверьте дату покупки в личном кабинете. Если с момента покупки не прошло года — можно оформить возврат по гарантии.</t>
+  </si>
+  <si>
+    <t>Можно ли сделать, чтобы чтение было без пауз?</t>
+  </si>
+  <si>
+    <t>Почему чтение на лампе идёт с паузами?</t>
+  </si>
+  <si>
+    <t>Можно ли убрать паузы при чтении?</t>
+  </si>
+  <si>
+    <t>Есть ли режим чтения без пауз?</t>
+  </si>
+  <si>
+    <t>Почему нельзя слушать Коран на лампе без пауз?</t>
+  </si>
+  <si>
+    <t>К сожалению, такой функции нет. Аяты записаны отдельными файлами специально, чтобы можно было пользоваться функцией «слово в слово» (для заучивания) и повторять один и тот же фрагмент. Поэтому чтение воспроизводится только с паузами.</t>
+  </si>
+  <si>
+    <t>Почему при подключении лампы к Bluetooth нет звука (например, в YouTube)?</t>
+  </si>
+  <si>
+    <t>Лампа подключена по Bluetooth, но звука нет</t>
+  </si>
+  <si>
+    <t>Почему в YouTube нет звука через лампу по Bluetooth?</t>
+  </si>
+  <si>
+    <t>Подключил лампу по Bluetooth, но приложение или YouTube не воспроизводят звук</t>
+  </si>
+  <si>
+    <t>Нет звука на лампе после подключения к телефону</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Чтобы воспроизводить музыку с телефона (например, из YouTube), нужно включить Bluetooth-режим на самой лампе. Далее:   1. Подключитесь к лампе по Bluetooth в настройках телефона.   2. Откройте приложение Koran Player.   3. В настройках приложения нажмите на значок Bluetooth.   4. Убедитесь, что лампа появилась в списке устройств, и выберите её.   После этого звук будет воспроизводиться через лампу.</t>
+  </si>
+  <si>
+    <t>Лампа считается халяль?</t>
+  </si>
+  <si>
+    <t>Это халяльный товар?</t>
+  </si>
+  <si>
+    <t>Продукция MalDina халяль?</t>
+  </si>
+  <si>
+    <t>Можно быть уверенным, что лампа халяль?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, лампы являются халяль-продукцией.</t>
+  </si>
+  <si>
+    <t>Можно использовать лампу как арома-диффузор?</t>
+  </si>
+  <si>
+    <t>У лампы есть функция арома-диффузора?</t>
+  </si>
+  <si>
+    <t>Можно ли капать ароматическое масло в лампу?</t>
+  </si>
+  <si>
+    <t>Есть ли возможность использовать лампу как ароматизатор?</t>
+  </si>
+  <si>
+    <t>Как использовать функцию арома-диффузора в лампе?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! К сожалению, в наших лампах нет функции арома-диффузора.</t>
+  </si>
+  <si>
+    <t>Можно ли добавить чтеца с телефона, если его нет в лампе?</t>
+  </si>
+  <si>
+    <t>Как добавить нового чтеца в лампу?</t>
+  </si>
+  <si>
+    <t>Можно ли загрузить дополнительных чтецов в лампу?</t>
+  </si>
+  <si>
+    <t>Как слушать чтеца, которого нет в лампе?</t>
+  </si>
+  <si>
+    <t>Можно ли добавить свой аудиофайл или чтеца в лампу?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! К сожалению, добавить нового чтеца в лампу невозможно. Но вы можете использовать лампу как колонку: подключитесь по Bluetooth и включайте любые аудиофайлы с телефона. Если будут вопросы — напишите нам в чат поддержки WhatsApp: +7 (962) 559-29-48, мы поможем.</t>
+  </si>
+  <si>
+    <t>Можно ли вставить флешку с музыкой в лампу?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли лампа музыку с флешки?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе разъём для флешки</t>
+  </si>
+  <si>
+    <t>Можно слушать музыку с USB флешки на лампе?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли лампа воспроизведение музыки через флешку?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! В данной модели разъёма для флешки нет. Флешка, которая идёт в некоторых моделях со съёмным носителем, используется только для замены при браке. Музыку можно слушать, подключив лампу по Bluetooth и запустив любое аудио с телефона.</t>
+  </si>
+  <si>
+    <t>Включила лампу на зарядку, она мигает — это нормально?</t>
+  </si>
+  <si>
+    <t>Лампа мигает во время зарядки, это так и должно быть?</t>
+  </si>
+  <si>
+    <t>Нормально ли, что лампа моргает при зарядке?</t>
+  </si>
+  <si>
+    <t>Почему лампа мигает, когда подключаю её к зарядке?</t>
+  </si>
+  <si>
+    <t>Во время зарядки лампа мигает — это не поломка?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, это не поломка. Во время зарядки лампа мигает зелёным светом. Когда заряд завершён — индикатор горит ровным светом.</t>
+  </si>
+  <si>
+    <t>Кнопка 'Азан' на пульте что выполняет ?</t>
+  </si>
+  <si>
+    <t>Для чего нужна кнопка 'Азан' на пульте лампы с флешкой?</t>
+  </si>
+  <si>
+    <t>Что делает кнопка 'Азан' на пульте лампы?</t>
+  </si>
+  <si>
+    <t>Как работает кнопка 'Азан' на пульте лампы с флешкой?</t>
+  </si>
+  <si>
+    <t>Можно ли через кнопку 'Азан' на пульте настроить время?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! В этой модели лампы кнопку 'Азан' можно использовать только для самостоятельного включения или выключения азана. Автоматической настройки по времени здесь нет.</t>
+  </si>
+  <si>
+    <t>В лампе есть FM-радио, MP3-плеер, азан?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли лампа FM-радио и MP3-плеер?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать радио напрямую через лампу?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе MP3-плеер или FM-радио?</t>
+  </si>
+  <si>
+    <t>Лампа воспроизводит радио или MP3 без телефона?</t>
+  </si>
+  <si>
+    <t>В лампе нет встроенного радио и MP3-плеера. Но вы можете использовать её как Bluetooth-колонку: подключите телефон и слушайте музыку или радио онлайн. Ждём вас за новыми покупками в нашем магазине. С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Можно ли использовать лампу как Bluetooth колонку?</t>
+  </si>
+  <si>
+    <t>Как включить режим колонки на лампе?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать музыку через лампу с телефона?</t>
+  </si>
+  <si>
+    <t>Лампа поддерживает режим Bluetooth-колонки?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, лампа работает как беспроводная колонка. Подключите её по Bluetooth через телефон и воспроизводите любую музыку или видео. Важно: флешку с музыкой лампа не воспроизводит, она работает именно как Bluetooth колонка.","лампы/подключение" "Как включить режим колонки на лампе?","Здравствуйте! Чтобы использовать лампу как колонку:   1. Зарядите лампу около 2 часов.   2. Включите её сенсорной кнопкой.   3. Нажмите кнопку питания на пульте.   4. Нажмите кнопку Bluetooth на пульте (услышите 'Bluetooth mode on').   5. Включите Bluetooth на телефоне и подключитесь к устройству.  Теперь можно слушать музыку или видео через лампу.</t>
+  </si>
+  <si>
+    <t>Азан в лампе включается автоматически по времени?</t>
+  </si>
+  <si>
+    <t>Можно настроить азан в лампе по времени?</t>
+  </si>
+  <si>
+    <t>Лампа сама будет включать азан по расписанию?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе функция автоматического азана по времени?</t>
+  </si>
+  <si>
+    <t>Как сделать, чтобы азан сам включался по времени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> данной модели автоматического включения азана по времени нет. Азан можно включать самостоятельно с помощью пульта или через приложение. Автоматическое чтение по расписанию доступно только у лампы-цилиндра с часами (артикул WB: 45710686) и у лампы-цилиндра без часов (артикул WB: 211880898). Если нужна помощь с выбором подходящей модели — напишите нам в чат поддержки WhatsApp: +7 (962) 559-29-48. Ждём вас за новыми покупками! С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Как отключить азан с пульта в лампе цилиндр?</t>
+  </si>
+  <si>
+    <t>Как выключить азан на лампе цилиндр через пульт?</t>
+  </si>
+  <si>
+    <t>Какая кнопка на пульте отвечает за отключение азана?</t>
+  </si>
+  <si>
+    <t>Как остановить азан на лампе цилиндр с помощью пульта?</t>
+  </si>
+  <si>
+    <t>Можно ли отключить азан с пульта у лампы цилиндр?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, можно. В лампе-цилиндр азан отключается долгим нажатием на кнопку «Azan» на пульте.</t>
+  </si>
+  <si>
+    <t>Есть ли модель лампы без нашидов и восточных мелодий?</t>
+  </si>
+  <si>
+    <t>Можно ли купить лампу без нашидов?</t>
+  </si>
+  <si>
+    <t>Есть ли лампа без восточных мелодий и нашидов?</t>
+  </si>
+  <si>
+    <t>Можно ли отключить нашиды на лампе?</t>
+  </si>
+  <si>
+    <t>У вас бывают лампы без нашидов?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! Во всех наших моделях ламп есть нашиды. Они всегда без музыкального сопровождения, только с голосом. Если не хотите слушать нашиды, просто не используйте эту функцию. Ждём вас за новыми покупками в нашем магазине. С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Лампа читает только азан и рукью без Bluetooth?</t>
+  </si>
+  <si>
+    <t>В лампе есть только азан и рукья или все суры тоже?</t>
+  </si>
+  <si>
+    <t>Какие суры есть в лампе кроме азана и рукьи?</t>
+  </si>
+  <si>
+    <t>Лампа воспроизводит только азан и рукью?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать другие суры на лампе без Bluetooth?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! Нет, в лампе есть не только азан и рукья — в ней содержится весь Коран целиком. Вы можете выбирать разные суры, чтецов и языки. Управлять лампой можно через пульт или приложение по Bluetooth. С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Пришлите, пожалуйста, инструкцию для лампочки для розетки</t>
+  </si>
+  <si>
+    <t>Где можно скачать инструкцию для лампы в розетку?</t>
+  </si>
+  <si>
+    <t>Есть ли инструкция для лампы, которая в розетку?</t>
+  </si>
+  <si>
+    <t>Как получить инструкцию для лампы-розетки?</t>
+  </si>
+  <si>
+    <t>Инструкция к лампе для розетки — где найти?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! Скачать инструкцию к лампочке для розетки можно по ссылке: https://disk.yandex.ru/d/pB_H78P0A1iz0A   Если у вас не получится открыть файл — напишите нам в чат поддержки в WhatsApp: +7 (962) 559-29-48, и мы вышлем инструкцию картинкой в формате JPG.   С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Можно ли на лампе включать через телефон не только Коран, а музыку или видео?</t>
+  </si>
+  <si>
+    <t>Лампа работает как колонка для телефона?</t>
+  </si>
+  <si>
+    <t>Можно ли через телефон включать музыку на лампе, а не только Коран?</t>
+  </si>
+  <si>
+    <t>Как использовать лампу как колонку для телефона?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать любые песни с телефона через лампу?"</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, лампу можно использовать как Bluetooth-колонку. Подключите её к телефону по Bluetooth и включайте любую музыку, аудио или видео — всё будет звучать через лампу.</t>
+  </si>
+  <si>
+    <t>Сколько всего аятов читает лампа?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе полный Коран (все аяты)?</t>
+  </si>
+  <si>
+    <t>Лампа воспроизводит весь Коран или отдельные суры?</t>
+  </si>
+  <si>
+    <t>Все ли аяты есть в лампе?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Да, в лампе содержится полный Коран — все суры и аяты полностью. Ждём вас за новыми покупками в нашем магазине. С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Потеряли пульт, можно ссылку для покупки?</t>
+  </si>
+  <si>
+    <t>Где купить новый пульт для лампы?</t>
+  </si>
+  <si>
+    <t>Можно заказать отдельно пульт от лампы?</t>
+  </si>
+  <si>
+    <t>Утерял пульт от лампы, как заказать новый?</t>
+  </si>
+  <si>
+    <t>Дайте ссылку на пульт для лампы</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Если пульт утерян, вы можете заказать новый. Пульт для ламп — артикул WB: 152091010. Ждём вас за покупками в нашем магазине. С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Светильник пришёл без пульта, как оформить дозаказ?</t>
+  </si>
+  <si>
+    <t>Что делать, если лампа пришла без пульта?</t>
+  </si>
+  <si>
+    <t>Как купить пульт, если в комплекте его не было?</t>
+  </si>
+  <si>
+    <t>Если пришла лампа без пульта, можно дозаказать отдельно?</t>
+  </si>
+  <si>
+    <t>Лампа пришла без пульта, где взять новый?</t>
+  </si>
+  <si>
+    <t>Добрый день! Все наши товары проходят проверку перед отправкой, но сотрудники ПВЗ также просят проверять комплектацию на месте при получении. Если пульт отсутствует, вы можете оформить дозаказ отдельно. Артикул пульта для ламп — WB: 152091010. Благодарим за покупку! С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>У меня проблемы с пультом, он не подключается к лампе. Могу ли я купить новый пульт на Ozon?</t>
+  </si>
+  <si>
+    <t>Пульт не работает, где можно купить новый?</t>
+  </si>
+  <si>
+    <t>Пульт не подключается к лампе, можно заказать другой?</t>
+  </si>
+  <si>
+    <t>Где купить пульт для лампы MalDina на Ozon?</t>
+  </si>
+  <si>
+    <t>Можно ли купить пульт отдельно, если старый не работает?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Благодарим вас за обращение. Да, у нас можно приобрести пульт для наших ламп. Но обратите внимание: если лампа была куплена не у нас, то модель пульта может отличаться. Для заказа используйте артикул на Ozon — 1759013127. С уважением, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Есть ли инструкция и пульт на арабском языке?</t>
+  </si>
+  <si>
+    <t>Инструкция к лампе может быть на арабском?</t>
+  </si>
+  <si>
+    <t>Пульт к лампе бывает на арабском языке?</t>
+  </si>
+  <si>
+    <t>Можно заказать лампу с арабской инструкцией и пультом?</t>
+  </si>
+  <si>
+    <t>Какая инструкция и пульт в комплекте — на русском или арабском?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! В данной модели лампы, в зависимости от партии, пульт, коробка и инструкция могут быть как на арабском, так и на русском языке. Мы всегда указываем эту информацию на слайдах в карточке товара, но заранее уточнить конкретный вариант, к сожалению, не можем.</t>
+  </si>
+  <si>
+    <t>А будильник есть у лампы?</t>
+  </si>
+  <si>
+    <t>Есть ли у лампы функция будильника?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать лампу как будильник?</t>
+  </si>
+  <si>
+    <t>Лампа может сама включаться как будильник?</t>
+  </si>
+  <si>
+    <t>В лампе есть режим будильника?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! В данной модели лампы функция будильника не поддерживается.</t>
+  </si>
+  <si>
+    <t>Есть ли режим чтения Корана без света в лампе?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать Коран на лампе без света?</t>
+  </si>
+  <si>
+    <t>Как включить Коран без подсветки на лампе?</t>
+  </si>
+  <si>
+    <t>Можно ли, чтобы лампа читала Коран без включённого света?</t>
+  </si>
+  <si>
+    <t>Как сделать, чтобы при чтении Корана лампа не светилась?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! К сожалению, в данной модели нет отдельного режима, чтобы лампа полностью читала Коран без подсветки. Лампа всегда светится при включении — это признак, что она работает и заряжается. Если свет мешает, вы можете выбрать нейтральный оттенок (один из 7 доступных) и установить минимальную яркость. Будем рады видеть вас в числе наших покупателей и в будущем! С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Сколько держит заряд лампа Луна?</t>
+  </si>
+  <si>
+    <t>На сколько часов хватает заряда у лампы Луна?</t>
+  </si>
+  <si>
+    <t>Как долго работает лампа Луна без подзарядки?</t>
+  </si>
+  <si>
+    <t>Сколько времени работает лампа Луна от аккумулятора?</t>
+  </si>
+  <si>
+    <t>Какой заряд у лампы Луна и на сколько его хватает?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! Время зарядки лампы Луна — около 1,5–2 часов. После этого она работает автономно от 4 до 12 часов (в зависимости от яркости и громкости). С наилучшими пожеланиями, команда MalDina.</t>
+  </si>
+  <si>
+    <t>Как понять, что лампа заряжается?</t>
+  </si>
+  <si>
+    <t>Как лампа показывает процесс зарядки?</t>
+  </si>
+  <si>
+    <t>Как определить, что лампа зарядилась?</t>
+  </si>
+  <si>
+    <t>Какая индикация у лампы при зарядке?</t>
+  </si>
+  <si>
+    <t>Как лампа сигнализирует о полной зарядке?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! Во время зарядки лампа мигает зелёным светом. Когда аккумулятор полностью заряжен — индикатор горит зелёным без мигания.</t>
+  </si>
+  <si>
+    <t>Сколько по времени заряжается лампа Луна и сколько держит заряд?</t>
+  </si>
+  <si>
+    <t>Сколько часов заряжается лампа Луна?</t>
+  </si>
+  <si>
+    <t>На сколько хватает заряда лампы Луна?</t>
+  </si>
+  <si>
+    <t>Как долго лампа Луна держит заряд?</t>
+  </si>
+  <si>
+    <t>Сколько времени нужно заряжать лампу Луна?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель! Лампа Луна заряжается примерно 2 часа и работает автономно до 12 часов — в зависимости от уровня яркости и громкости. Лампа также уведомляет, когда требуется подзарядка.</t>
+  </si>
+  <si>
+    <t>Какие еще лампы на ВБ</t>
+  </si>
+  <si>
+    <t>Какие модели ламп, читающих Коран, есть на Wildberries?</t>
+  </si>
+  <si>
+    <t>Можете перечислить все доступные лампы с артикулом WB?</t>
+  </si>
+  <si>
+    <t>Есть ли разные виды ламп (луна, вселенная, цилиндр) в магазине?</t>
+  </si>
+  <si>
+    <t>Подскажите, какие лампы для чтения Корана можно купить на WB?</t>
+  </si>
+  <si>
+    <t>Какие артикулы ламп доступны на Wildberries?</t>
+  </si>
+  <si>
+    <t>Эта флешка предназначена только для ламп, которые продаются в нашем магазине, отдельно она не работает. Лампы, читающие Коран, доступны в разных вариантах: Лампа вселенная (WB: 271020758), Лампа луна (WB: 270869273), Лампа цилиндр с часами (WB: 45710686), Лампа цилиндр без часов (WB: 211880898), Лампа-динамик в виде лампочки (WB: 311260435). При необходимости можно обратиться в чат поддержки по WhatsApp: +7 (962) 559-29-48.</t>
+  </si>
+  <si>
+    <t>Как включить Коран?</t>
+  </si>
+  <si>
+    <t>Лампа читает только суры или весь Коран?</t>
+  </si>
+  <si>
+    <t>Как выбрать язык перевода в лампе?</t>
+  </si>
+  <si>
+    <t>В лампе только арабский и английский, как включить татарский язык?</t>
+  </si>
+  <si>
+    <t>На какой кнопке переключаются языки перевода?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать Коран полностью, а не отдельные суры?</t>
+  </si>
+  <si>
+    <t>Лампа читает полный Коран (все 114 сур). Нужный язык перевода можно выбрать нажатием на кнопку «trans» на пульте и выбрать нужный язык. При необходимости можно обратиться в чат поддержки по WhatsApp: +7 (962) 559-29-48.</t>
+  </si>
+  <si>
+    <t>Как работает кнопка «Слово за слово»?</t>
+  </si>
+  <si>
+    <t>Как отключить функцию медленного чтения Корана по словам?</t>
+  </si>
+  <si>
+    <t>Включилась функция «Слово за слово», как её выключить?</t>
+  </si>
+  <si>
+    <t>Как убрать покомпонентное чтение сур?</t>
+  </si>
+  <si>
+    <t>Как вернуться к обычному чтению Корана после режима «Слово за слово»?</t>
+  </si>
+  <si>
+    <t>Чтобы отключить функцию «Слово за слово», нужно нажать на кнопку «Перевод» или выбрать чтение на арабском языке.</t>
+  </si>
+  <si>
+    <t>Как выключить функцию «Слово за слово»?</t>
+  </si>
+  <si>
+    <t>Как отключить режим покомпонентного чтения?</t>
+  </si>
+  <si>
+    <t>Как убрать слово-за-словом чтение Корана?</t>
+  </si>
+  <si>
+    <t>Какая кнопка отвечает за включение и отключение «Слово за слово»?</t>
+  </si>
+  <si>
+    <t>Как вернуться к обычному чтению без разделения на слова?</t>
+  </si>
+  <si>
+    <t>Функция «Слово за слово» включается и выключается отдельной кнопкой на пульте. Чтобы вернуться к обычному чтению, нажмите эту кнопку ещё раз.</t>
+  </si>
+  <si>
+    <t>Какая батарея используется в колонке лампы?</t>
+  </si>
+  <si>
+    <t>Какого типа аккумулятор установлен в лампе (литий-ионный, литий-металлический)?</t>
+  </si>
+  <si>
+    <t>Можно ли заменить аккумулятор в лампе?</t>
+  </si>
+  <si>
+    <t>Какая мощность или емкость батареи в лампе?</t>
+  </si>
+  <si>
+    <t>Какие батарейки используются в пульте?</t>
+  </si>
+  <si>
+    <t>В комплект входят батарейки для пульта?</t>
+  </si>
+  <si>
+    <t>В лампе встроенный аккумулятор, он не заменяется. Для пульта в комплекте идут батарейки в подарок.</t>
+  </si>
+  <si>
+    <t>Как отключить паузы между аятами?</t>
+  </si>
+  <si>
+    <t>Можно ли включить режим цельного чтения Корана без остановок?</t>
+  </si>
+  <si>
+    <t>Почему лампа делает паузы после каждого аята?</t>
+  </si>
+  <si>
+    <t>Можно ли убрать задержки между аятами?</t>
+  </si>
+  <si>
+    <t>Есть ли функция непрерывного чтения Корана в лампе?</t>
+  </si>
+  <si>
+    <t>Лампа не поддерживает режим полностью непрерывного чтения Корана. Между аятами будут небольшие паузы, так как каждый аят воспроизводится как отдельный файл.</t>
+  </si>
+  <si>
+    <t>Какой мощности должен быть зарядный блок для лампы?</t>
+  </si>
+  <si>
+    <t>Какой адаптер питания подходит к лампе?</t>
+  </si>
+  <si>
+    <t>Сколько ватт должен быть блок зарядки?</t>
+  </si>
+  <si>
+    <t>Какой зарядный блок лучше использовать для лампы?</t>
+  </si>
+  <si>
+    <t>Какая мощность зарядного устройства нужна?</t>
+  </si>
+  <si>
+    <t>Мощность зарядного блока должна быть 2.5W.</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе сура «Аль-Фатиха»?</t>
+  </si>
+  <si>
+    <t>В лампе читается «Аль-Фатиха»?</t>
+  </si>
+  <si>
+    <t>Этот чтец есть в лампе?</t>
+  </si>
+  <si>
+    <t>Сколько чтецов доступно в лампе?</t>
+  </si>
+  <si>
+    <t>В лампе модели с флешкой 168 доступны 19 чтецов: Мухаммад Сиддик Аль Миншави, Сауд аш-Шурейм, Хани ар-Рифаи, Халид Аль-Моханна, Имад Зухаир Хафез, Аль Каригу Хейх, Абдул Аль Жани, Хани Ар-Рифаи, Хассан Салех Мухаммад Хассан, Абдулла аль-Матруд, Махер аль-Муайкли, Абдулла Басфар, Абду-Басид Абду-Самад, Махмуд Халиль аль-Хусари, Ахмад бин Али аль-Аджми, Мишари Рашид аль-Афаси, Абдуррахман аль-Хузайфи, Саад аль-Гамди, Абдуррахман ас-Судейс, Мухаммад Айюб, Мухаммад Джибриль, Ибрахим Аль Акхдар, Мухаммад Таблави. Сура «Аль-Фатиха» в лампе есть.</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе чтец Ясир Ад-Доусари?</t>
+  </si>
+  <si>
+    <t>В этой модели лампы доступен Ясир Ад-Доусари?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать Коран в исполнении Ясира Ад-Доусари?</t>
+  </si>
+  <si>
+    <t>Какие чтецы есть в лампе модели SQ168TAT?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли лампа чтеца Ад-Доусари?</t>
+  </si>
+  <si>
+    <t>В лампе модели SQ168TAT доступны 19 чтецов: Мухаммад Сиддик Аль Миншави, Сауд аш-Шурейм, Абу Бакр аш-Шатри, Абдулла аль-Матруд, Махер аль-Муайкли, Абдулла Басфар, Абду-Басид Абду-Самад, Махмуд Халиль аль-Хусари, Ахмад бин Али аль-Аджми, Мишари Рашид аль-Афаси, Абдуррахман аль-Хузайфи, Саад аль-Гамди, Абдуррахман ас-Судейс. Чтеца Ясира Ад-Доусари в данной модели нет.</t>
+  </si>
+  <si>
+    <t>Чтение Корана чтецом Мишари есть в лампе?</t>
+  </si>
+  <si>
+    <t>В этой модели лампы доступен Мишари Рашид аль-Афаси?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать Коран в исполнении Мишари?</t>
+  </si>
+  <si>
+    <t>Какие чтецы есть в лампе модели SQ122?</t>
+  </si>
+  <si>
+    <t>Есть ли Мишари среди чтецов лампы?</t>
+  </si>
+  <si>
+    <t>В лампе модели SQ122 доступно 14 чтецов: Мухаммад Сиддик Аль Миншави, Сауд аш-Шурейм, Абу Бакр аш-Шатри, Абдулла аль-Матруд, Махер аль-Муайкли, Абдулла Басфар, Абду-Басид Абду-Самад, Махмуд Халиль аль-Хусари, Ахмад бин Али аль-Аджми, Мишари Рашид аль-Афаси, Абдуррахман аль-Хузайфи, Саад аль-Гамди, Абдуррахман ас-Судейс. Чтец Мишари Рашид аль-Афаси в этой модели есть.</t>
+  </si>
+  <si>
+    <t>Как включить перевод на другие языки в лампе?</t>
+  </si>
+  <si>
+    <t>Как переключать языки перевода с пульта?</t>
+  </si>
+  <si>
+    <t>Сколько языков перевода поддерживает лампа SQ112?</t>
+  </si>
+  <si>
+    <t>Есть ли перевод Корана на русский и татарский языки?</t>
+  </si>
+  <si>
+    <t>Какие языки перевода доступны в лампе?</t>
+  </si>
+  <si>
+    <t>В лампе модели SQ112 перевод Корана на разные языки уже записан. Для выбора языка используйте кнопку «TRANS» на пульте. Доступно 16 языков перевода: русский, татарский, английский, урду, французский, бангладеш, индонезийский, малазийский, фарси, сомалийский, турецкий, хинди, тамильский, узбекский, казахский, немецкий.</t>
+  </si>
+  <si>
+    <t>Сколько языков перевода поддерживает лампа?</t>
+  </si>
+  <si>
+    <t>В лампе SQ122 есть перевод на разные языки?</t>
+  </si>
+  <si>
+    <t>Сколько всего языков встроено в лампу цилиндр с часами?</t>
+  </si>
+  <si>
+    <t>Какие языки доступны для перевода Корана в лампе?</t>
+  </si>
+  <si>
+    <t>Есть ли в лампе перевод на русский и татарский языки?</t>
+  </si>
+  <si>
+    <t>В лампе модели SQ122 доступно 16 языков перевода: русский, татарский, английский, урду, французский, бангладеш, индонезийский, малазийский, фарси, сомалийский, турецкий, хинди, тамильский, узбекский, казахский, немецкий.</t>
+  </si>
+  <si>
+    <t>Почему исчезают часы, когда выключаю лампу из розетки?</t>
+  </si>
+  <si>
+    <t>После отключения от сети пропадают часы, что делать?</t>
+  </si>
+  <si>
+    <t>Как сохранить часы, если отключаю лампу от розетки?</t>
+  </si>
+  <si>
+    <t>Что делать, если при включении заново часы появляются?</t>
+  </si>
+  <si>
+    <t>Как правильно включить лампу цилиндр с часами SQ122?</t>
+  </si>
+  <si>
+    <t>Чтобы часы работали корректно, лампу цилиндр с часами SQ122 нужно зарядить около 3 часов, пока индикатор не перестанет мигать. Затем включить лампу: переключатель сзади поставить в положение «ON» и нажать кнопку включения спереди.</t>
+  </si>
+  <si>
+    <t>Как поставить чтение Корана на русском языке?</t>
+  </si>
+  <si>
+    <t>Какая кнопка на пульте отвечает за русский язык?</t>
+  </si>
+  <si>
+    <t>Как переключить перевод с арабского на русский?</t>
+  </si>
+  <si>
+    <t>Можно ли слушать Коран на русском языке в лампе?</t>
+  </si>
+  <si>
+    <t>Для переключения на русский язык нужно нажимать на кнопку «TRANS» на пульте до тех пор, пока не включится русский перевод.</t>
+  </si>
+  <si>
+    <t>Мне пришёл не тот товар, что делать?</t>
+  </si>
+  <si>
+    <t>Как вернуть товар, если прислали не тот?</t>
+  </si>
+  <si>
+    <t>Что делать, если заказ на Wildberries не соответствует описанию?</t>
+  </si>
+  <si>
+    <t>Как поступить, если перепутали товар на ПВЗ?</t>
+  </si>
+  <si>
+    <t>Куда обращаться, если пришёл не тот товар?</t>
+  </si>
+  <si>
+    <t>Если пришёл не тот товар, необходимо проверять заказ на ПВЗ и не забирать несоответствующий товар. Вернуть его можно только как брак. Это не наш товар, ошибка произошла со стороны Wildberries, поэтому рекомендуется написать в поддержку самой площадки.</t>
+  </si>
+  <si>
+    <t>Как оставить отзыв на товар?</t>
+  </si>
+  <si>
+    <t>Где можно написать отзыв о покупке?</t>
+  </si>
+  <si>
+    <t>Как оценить товар после получения?</t>
+  </si>
+  <si>
+    <t>В каком разделе оставить комментарий к товару?</t>
+  </si>
+  <si>
+    <t>Как поставить оценку товару на Wildberries?</t>
+  </si>
+  <si>
+    <t>Оставить отзыв можно в разделе «Мои покупки», где отображаются приобретённые товары. Там будет предложено оценить товар и написать комментарий.</t>
+  </si>
+  <si>
+    <t>Почему так долго идет доставка товара?</t>
+  </si>
+  <si>
+    <t>Когда приедет заказанный товар?</t>
+  </si>
+  <si>
+    <t>Почему задерживается поставка?</t>
+  </si>
+  <si>
+    <t>Кто отвечает за сроки доставки на Wildberries?</t>
+  </si>
+  <si>
+    <t>Когда ждать мой заказ?</t>
+  </si>
+  <si>
+    <t>Доставка осуществляется службой логистики Wildberries. Продавец отправляет товар в день заказа, но за сроки доставки отвечает сама площадка.</t>
+  </si>
+  <si>
+    <t>Почему массажер делает слабый массаж?</t>
+  </si>
+  <si>
+    <t>Можно ли увеличить интенсивность массажа?</t>
+  </si>
+  <si>
+    <t>Как настроить массажер, если слабый массаж?</t>
+  </si>
+  <si>
+    <t>Есть ли регулировка силы массажа?</t>
+  </si>
+  <si>
+    <t>Что делать, если массаж кажется слабым?</t>
+  </si>
+  <si>
+    <t>В массажере можно регулировать уровень интенсивности массажа для всех зон. У каждого разная чувствительность, поэтому рекомендуется увеличить интенсивность или выбрать другой режим. Благодаря настройкам почти все покупатели подбирают подходящий уровень.</t>
+  </si>
+  <si>
+    <t>Массажер делает только вибрацию?</t>
+  </si>
+  <si>
+    <t>Есть ли в массажере ролики или только вибромассаж?</t>
+  </si>
+  <si>
+    <t>Как работает массажер — ролики или вибрация?</t>
+  </si>
+  <si>
+    <t>Почему в описании указаны ролики, а работает вибрация?</t>
+  </si>
+  <si>
+    <t>Чем отличается вибромассаж от роликового массажа в этом товаре?</t>
+  </si>
+  <si>
+    <t>В массажере ролики есть только в области шеи и ног, в остальных зонах работает вибромассаж. Это указано в описании товара. Вибромассаж также считается массажем. Все массажные матрасы в данной ценовой категории работают по такому принципу.</t>
+  </si>
+  <si>
+    <t>В массажере только вибрация или есть проминание?</t>
+  </si>
+  <si>
+    <t>Есть ли у матраса функция проминания?</t>
+  </si>
+  <si>
+    <t>Какой вид массажа предусмотрен — вибрация или роликовый?</t>
+  </si>
+  <si>
+    <t>Массажный матрас умеет проминать или только вибрирует?</t>
+  </si>
+  <si>
+    <t>Какие функции массажа есть у этого матраса?</t>
+  </si>
+  <si>
+    <t>Массажный матрас оснащён виброплатформой, съёмной подушкой для ног и шеи с подогревом и массажными элементами с отдельным управлением.</t>
+  </si>
+  <si>
+    <t>Есть ли ограничение по времени работы массажного матраса в день?</t>
+  </si>
+  <si>
+    <t>Сколько минут можно использовать массажер за один сеанс?</t>
+  </si>
+  <si>
+    <t>Можно ли включать массажный матрас несколько раз в день?</t>
+  </si>
+  <si>
+    <t>Какое время работы рекомендовано производителем?</t>
+  </si>
+  <si>
+    <t>Есть ли противопоказания по длительности использования матраса?</t>
+  </si>
+  <si>
+    <t>Рекомендуется начинать с 15 минут в день на каждую зону, как указано производителем. Далее можно ориентироваться на собственное самочувствие. В карточке товара есть рекомендации и предостережения для людей с заболеваниями — в таких случаях лучше проконсультироваться с врачом.</t>
+  </si>
+  <si>
+    <t>Можно ли вернуть массажный матрас, если он не понравился?</t>
+  </si>
+  <si>
+    <t>Вернут ли деньги, если матрас покажется слабым?</t>
+  </si>
+  <si>
+    <t>Можно ли обменять матрас, если он не подошёл в течение двух недель?</t>
+  </si>
+  <si>
+    <t>Какие условия возврата массажного матраса?</t>
+  </si>
+  <si>
+    <t>Принимаете ли возврат без брака, если товар просто не понравился?</t>
+  </si>
+  <si>
+    <t>Возврат массажного матраса возможен только в случае брака.</t>
+  </si>
+  <si>
+    <t>На что рассчитана надувная подушка для всего тела?</t>
+  </si>
+  <si>
+    <t>Подушка в матрасе только для мягкости или тоже с функциями массажа?</t>
+  </si>
+  <si>
+    <t>Есть ли в надувной подушке массажные элементы?</t>
+  </si>
+  <si>
+    <t>В подушке предусмотрены вибрации или движения?</t>
+  </si>
+  <si>
+    <t>Для чего предназначена подушка в массажном матрасе?</t>
+  </si>
+  <si>
+    <t>Какой эффект дают съёмные подушки в массажном матрасе?</t>
+  </si>
+  <si>
+    <t>Есть ли вибрация в съёмных подушках?</t>
+  </si>
+  <si>
+    <t>Какие функции у съёмной пневмоподушки?</t>
+  </si>
+  <si>
+    <t>Для чего нужна съёмная подушка с травами?</t>
+  </si>
+  <si>
+    <t>Что делает съёмная подушка с управлением и подогревом?</t>
+  </si>
+  <si>
+    <t>В комплектацию входят несколько съёмных подушек: подушка с травами, пневмоподушка, а также съёмная подушка с управлением — в ней есть подогрев, регулировка мощности и смена направления роликов.</t>
+  </si>
+  <si>
+    <t>Чем отличается эта модель от артикула 216849296?</t>
+  </si>
+  <si>
+    <t>Какие отличия между данным матрасом и моделью 216849296?</t>
+  </si>
+  <si>
+    <t>Есть ли разница в комплектации с матрасом 216849296?</t>
+  </si>
+  <si>
+    <t>В чём разница между этой моделью и артикулом 216849296?</t>
+  </si>
+  <si>
+    <t>Какие особенности отличают эту модель от 216849296?</t>
+  </si>
+  <si>
+    <t>Эта модель отличается от матраса с артикулом 216849296 наличием пульта и инструкции на русском языке.</t>
+  </si>
+  <si>
+    <t>В чём отличие матрасов с артикулами 216849296 и 292041982?</t>
+  </si>
+  <si>
+    <t>Какие различия между матрасами Арт. 216849296 и Арт. 292041982?</t>
+  </si>
+  <si>
+    <t>Чем отличается комплектация моделей 216849296 и 292041982?</t>
+  </si>
+  <si>
+    <t>Есть ли разница в пульте и инструкции у этих матрасов?</t>
+  </si>
+  <si>
+    <t>В остальном матрасы 216849296 и 292041982 одинаковые?</t>
+  </si>
+  <si>
+    <t>Матрас с артикулом 292041982 комплектуется пультом и инструкцией на русском языке. В модели с артикулом 216849296 есть только инструкция на русском. Размер, комплектация, материалы и гарантия 1 год у них одинаковые.</t>
+  </si>
+  <si>
+    <t>Насколько сильно ощущаются элементы вибрации на поверхности накидки?</t>
+  </si>
+  <si>
+    <t>Создают ли элементы вибрации дискомфорт при долгой поездке за рулём?</t>
+  </si>
+  <si>
+    <t>Нужно ли использовать массажную накидку только во время массажа?</t>
+  </si>
+  <si>
+    <t>Можно ли ездить с выключенной накидкой без неудобств?</t>
+  </si>
+  <si>
+    <t>Сколько режимов массажа доступно и можно ли подобрать комфортный?</t>
+  </si>
+  <si>
+    <t>Выключенная накидка не доставляет дискомфорта. Во время массажа можно регулировать интенсивность — доступно 9 режимов, что позволяет выбрать комфортный вариант даже во время езды.</t>
+  </si>
+  <si>
+    <t>Есть ли массажная подушка в комплекте товара?</t>
+  </si>
+  <si>
+    <t>Почему в описании указана подушка, а в комплекте её нет?</t>
+  </si>
+  <si>
+    <t>Входит ли массажная подушка в комплектацию?</t>
+  </si>
+  <si>
+    <t>Подушка из комплекта крепится на подголовник?</t>
+  </si>
+  <si>
+    <t>Что делать, если товар пришёл без массажной подушки?</t>
+  </si>
+  <si>
+    <t>В комплекте есть массажная подушка, которая крепится на подголовник. Если товар пришёл без неё, нужно написать в чат поддержки покупателей по WhatsApp: +7 (962) 559-29-48.</t>
+  </si>
+  <si>
+    <t>Как вернуть матрас, если он перестанет работать в течение года?</t>
+  </si>
+  <si>
+    <t>Что делать, если у матраса сломается один из режимов?</t>
+  </si>
+  <si>
+    <t>Как осуществляется возврат матраса по гарантии?</t>
+  </si>
+  <si>
+    <t>Какие действия нужны для подтверждения неисправности матраса?</t>
+  </si>
+  <si>
+    <t>Куда обращаться, если матрас вышел из строя в течение года?</t>
+  </si>
+  <si>
+    <t>Для возврата в течение года нужно написать в чат с покупателями в кабинете Wildberries или в чат поддержки по WhatsApp: +7 (962) 559-29-48. Продавец проверит, что покупка была сделана именно у него, и необходимо будет подтвердить неисправность на видео. После этого возврат одобряется.</t>
+  </si>
+  <si>
+    <t>Сильно ли шумит массажный матрас во время работы?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать матрас на кушетке при наращивании ресниц?</t>
+  </si>
+  <si>
+    <t>Будет ли мешать шум при работе?</t>
+  </si>
+  <si>
+    <t>Реально ли пролежать на массажном матрасе пару часов подряд?</t>
+  </si>
+  <si>
+    <t>Сколько времени можно безопасно использовать массажный матрас?</t>
+  </si>
+  <si>
+    <t>Массажный матрас работает не шумно. Однако он рассчитан на использование до 30 минут за сеанс. Для длительных процедур, например, при наращивании ресниц, он может быть неудобен в работе. Лучше использовать его периодически, чтобы человек мог расслабиться и отдохнуть.</t>
+  </si>
+  <si>
+    <t>Какие массажные ощущения даёт матрас?</t>
+  </si>
+  <si>
+    <t>В массажном матрасе только вибрация или есть эффект вытяжения?</t>
+  </si>
+  <si>
+    <t>Сколько режимов и скоростей у матраса?</t>
+  </si>
+  <si>
+    <t>Есть ли подогрев в массажном матрасе?</t>
+  </si>
+  <si>
+    <t>Как работают съёмная подушка и массажер для ног?</t>
+  </si>
+  <si>
+    <t>Массажный матрас обеспечивает вибрацию по всему телу для расслабления. В нём 9 режимов работы, которые можно регулировать с пульта. Есть функция подогрева. Съёмная подушка для шеи и массажер для ног имеют отдельное управление и настройки, их можно размещать в разных зонах тела.</t>
+  </si>
+  <si>
+    <t>Что находится внутри аромоподушки?</t>
+  </si>
+  <si>
+    <t>Какие травы входят в состав аромоподушки?</t>
+  </si>
+  <si>
+    <t>Чем наполнена аромоподушка?</t>
+  </si>
+  <si>
+    <t>Какие компоненты используются в аромоподушке?</t>
+  </si>
+  <si>
+    <t>Из чего сделана начинка аромоподушки?</t>
+  </si>
+  <si>
+    <t>В аромоподушке находятся: мята, полынь, сафлор, котовник, сапожниковия растопыренная.</t>
+  </si>
+  <si>
+    <t>Можно ли стелить массажный матрас на компьютерное кресло?</t>
+  </si>
+  <si>
+    <t>Допустимо ли использовать матрас на стуле или кресле?</t>
+  </si>
+  <si>
+    <t>Можно ли эксплуатировать массажный матрас на офисном кресле?</t>
+  </si>
+  <si>
+    <t>Подходит ли компьютерное кресло для установки матраса?</t>
+  </si>
+  <si>
+    <t>На какой поверхности лучше использовать массажный матрас?</t>
+  </si>
+  <si>
+    <t>Желательно использовать массажный матрас на ровной поверхности</t>
+  </si>
+  <si>
+    <t>Можно ли использовать массажный матрас в кресле-качалке?</t>
+  </si>
+  <si>
+    <t>Подойдёт ли матрас для установки на кресло-качалку?</t>
+  </si>
+  <si>
+    <t>Где находятся ролики — только в подушке и подставке для ног или и в самом матрасе?</t>
+  </si>
+  <si>
+    <t>Есть ли в самом матрасе ролики или только виброплатформы?</t>
+  </si>
+  <si>
+    <t>Из какой ткани сделан массажный матрас, она антивандальная?</t>
+  </si>
+  <si>
+    <t>Производитель рекомендует использовать матрас на ровной поверхности. Если есть возможность уложить его целиком на сиденье кресла-качалки и лечь на него, такой вариант подойдёт. Ролики находятся в съёмной подушке и подставке для ног, в самом матрасе расположены виброплатформы. Ткань мягкая и приятная на ощупь.</t>
+  </si>
+  <si>
+    <t>Можно ли с помощью массажной подушки убрать соли в области шеи?</t>
+  </si>
+  <si>
+    <t>Поможет ли матрас разогнать солевые отложения в шее?</t>
+  </si>
+  <si>
+    <t>Есть ли у массажной подушки лечебный эффект при солях?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать массажер при отложении солей?</t>
+  </si>
+  <si>
+    <t>Помогает ли массаж при проблемах с шеей и отложениях солей?</t>
+  </si>
+  <si>
+    <t>Не стоит самостоятельно пытаться убрать отложения солей. Только врач после обследования может назначить правильное лечение. Массажная подушка может помочь на ранних стадиях, когда ещё не начались серьёзные изменения.</t>
+  </si>
+  <si>
+    <t>Как закрепить массажный матрас на кресле?</t>
+  </si>
+  <si>
+    <t>Почему матрас сползает с кресла?</t>
+  </si>
+  <si>
+    <t>Есть ли крепления для фиксации на кресле?</t>
+  </si>
+  <si>
+    <t>Как использовать массажный матрас на кресле, чтобы он не скользил?</t>
+  </si>
+  <si>
+    <t>Демонстрация на кресле — это только один из вариантов применения. Специальных креплений нет, поэтому, если использовать матрас на кресле, он удерживается за счёт веса сидящего человека. Более эффективно применять его лёжа на ровной поверхности.</t>
+  </si>
+  <si>
+    <t>Чем отличаются модели массажных матрасов?</t>
+  </si>
+  <si>
+    <t>Какие различия между матрасами HS-D7, CD8-F, D5 и D5-Dnew?</t>
+  </si>
+  <si>
+    <t>Какие функции есть у матрасов CD8-F/HS-D7/D5?</t>
+  </si>
+  <si>
+    <t>Чем отличается модель D5-Dnew от других матрасов?</t>
+  </si>
+  <si>
+    <t>В чём разница материалов и комплектации матрасов?</t>
+  </si>
+  <si>
+    <t>Массажные матрасы отличаются следующими характеристиками: Артикул WB: 292041982 (модель HS-D7) — основной матрас: вибрация (9 режимов работы, 9 режимов интенсивности), выбор зоны воздействия, подогрев в области поясницы. Аромаподушка с наполнителем (заменяемая), подушка под поясницу. Массажер для шеи: подогрев, роликовый массаж, смена направления, регулировка мощности и силы. Массажер для ног: подогрев, роликовый массаж, смена направления, регулировка мощности. Поверхность — велюр серого цвета. Артикул WB: 216849296 (модель CD8-F) — функции аналогичны HS-D7. Отличие только в дизайне и комплектации (пульт и инструкция на русском). Поверхность — велюр серого цвета. Артикул WB: 401482557 (модель D5) — функции такие же, как у HS-D7 и CD8-F. Поверхность — экокожа коричневого цвета. Артикул WB: 431394602 (модель D5-Dnew) — основной матрас: вибрация (9 режимов работы, 9 режимов интенсивности), выбор зоны воздействия, подогрев в пояснице. Аромаподушка с наполнителем (заменяемая), подушка под поясницу с подогревом и массажем. Массажер для шеи: подогрев, роликовый массаж, смена направления, регулировка мощности и силы. Массажер для ног: подогрев, роликовый массаж, 16 вращающихся головок, смена направления, регулировка мощности. Поверхность — экокожа.</t>
+  </si>
+  <si>
+    <t>Мощность массажёра составляет 5V, 20W.</t>
+  </si>
+  <si>
+    <t>Какая мощность массажёра Перкусмассаж 24?</t>
+  </si>
+  <si>
+    <t>Сколько ватт у массажёра Перкусмассаж 24?</t>
+  </si>
+  <si>
+    <t>Какое напряжение и мощность у модели Перкусмассаж 24?</t>
+  </si>
+  <si>
+    <t>Какая выходная мощность у массажёра Перкусмассаж 24?</t>
+  </si>
+  <si>
+    <t>Какой блок питания нужен для массажёра Перкусмассаж 24?</t>
+  </si>
+  <si>
+    <t>Массажёр для головы работает только от аккумулятора или и от сети тоже?</t>
+  </si>
+  <si>
+    <t>Нужно ли заряжать массажёр для головы перед использованием?</t>
+  </si>
+  <si>
+    <t>Может ли массажёр работать во время зарядки от сети?</t>
+  </si>
+  <si>
+    <t>Как правильно пользоваться массажёром для головы — от сети или от батареи?</t>
+  </si>
+  <si>
+    <t>Опасно ли использовать массажёр для головы при подключении к сети?</t>
+  </si>
+  <si>
+    <t>Массажёр для головы необходимо предварительно зарядить и использовать без подключения к сети. Во время зарядки он не работает. Использовать такие устройства при подключении к сети не рекомендуется из соображений безопасности.</t>
+  </si>
+  <si>
+    <t>Работает ли массажная накидка только от прикуривателя или можно включать самостоятельно?</t>
+  </si>
+  <si>
+    <t>Можно ли пользоваться массажной накидкой без прикуривателя?</t>
+  </si>
+  <si>
+    <t>Нужно ли подзаряжать массажную накидку?</t>
+  </si>
+  <si>
+    <t>Работает ли массажная накидка от аккумулятора?</t>
+  </si>
+  <si>
+    <t>Можно ли подключить массажную накидку в розетку дома?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель. Работает только от прикуривателя в авто, либо при подключении в розетку.</t>
+  </si>
+  <si>
+    <t>От скольки вольт работает массажная накидка?</t>
+  </si>
+  <si>
+    <t>Можно ли подключить массажную накидку в сеть 220 V?</t>
+  </si>
+  <si>
+    <t>Работает ли массажная накидка от 12 V в машине?</t>
+  </si>
+  <si>
+    <t>Есть ли переходник для работы от розетки 220 V?</t>
+  </si>
+  <si>
+    <t>Подходит ли массажная накидка для использования только в авто или и дома тоже?</t>
+  </si>
+  <si>
+    <t>Добрый вечер, уважаемый покупатель. От прикуривателя 12 V, от розетки 220 V.</t>
+  </si>
+  <si>
+    <t>Можно ли использовать массажную накидку человеку после инфаркта?</t>
+  </si>
+  <si>
+    <t>Безопасна ли массажная накидка для людей с сердечными заболеваниями?</t>
+  </si>
+  <si>
+    <t>Можно ли пользоваться массажной накидкой, если установлен стенд или другие импланты?</t>
+  </si>
+  <si>
+    <t>Есть ли противопоказания по сердечно-сосудистым заболеваниям?</t>
+  </si>
+  <si>
+    <t>Можно ли включать массажную накидку при проблемах с сердцем?</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Лучше уточните у лечащего врача. Но тут нет ни инфракрасного излучения, ни каких-то магнитных волн. Есть вибрации и подогрев в области поясницы и съёмного подголовника.</t>
+  </si>
+  <si>
+    <t>Чем отличаются разные модели массажных накидок?</t>
+  </si>
+  <si>
+    <t>Почему цена на массажные накидки отличается?</t>
+  </si>
+  <si>
+    <t>Есть ли различия между похожими моделями массажных накидок?</t>
+  </si>
+  <si>
+    <t>Почему одинаковые накидки выглядят похоже, но стоят по-разному?</t>
+  </si>
+  <si>
+    <t>От чего зависят отличия в характеристиках массажных накидок?</t>
+  </si>
+  <si>
+    <t>Здравствуйте, уважаемый покупатель. Благодарим вас за интерес к нашему магазину и ваш вопрос. Спасибо за ваш внимательный подход к выбору товара. Действительно, карточки могут выглядеть похоже, но это разные позиции. Разница в цене обусловлена различными партиями поставок и условиями закупки. Каждая партия может иметь свои особенности производства и сертификации. Мы стараемся предоставлять максимально полную информацию о товарах, но иногда характеристики могут различаться даже при схожем внешнем виде. Ждём вас за покупками в нашем магазине. С наилучшими пожеланиями, Команда магазина MalDina.</t>
+  </si>
+  <si>
+    <t>Внутри массажной накидки элементы двигаются или только вибрируют?</t>
+  </si>
+  <si>
+    <t>Есть ли у массажной накидки подвижные ролики?</t>
+  </si>
+  <si>
+    <t>Как работает массажная накидка: вибрация или движение роликов?</t>
+  </si>
+  <si>
+    <t>Вибрирует ли массажная накидка или делает массаж движениями?</t>
+  </si>
+  <si>
+    <t>В каких зонах у массажной накидки есть вибрация и подогрев?</t>
+  </si>
+  <si>
+    <t>В самой накидке 9 виброзон (вибрирует), в подголовнике 2 роликовых элемента (двигается), также в области поясницы и шеи есть подогрев.</t>
+  </si>
+  <si>
+    <t>Можно ли отключить вибрацию у массажной накидки?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать массажную накидку только с роликами без вибрации?</t>
+  </si>
+  <si>
+    <t>Как отключить вибрацию и оставить только ролики?</t>
+  </si>
+  <si>
+    <t>Можно ли настроить режим работы только роликов в массажной накидке?</t>
+  </si>
+  <si>
+    <t>Можно ли управлять подогревом и вибрацией отдельно?</t>
+  </si>
+  <si>
+    <t>В самой накидке 9 виброзон, управление осуществляется с пульта — можно уменьшать интенсивность вибрации или полностью её отключить. В подголовнике находятся 2 роликовых элемента, которые управляются отдельной кнопкой сбоку. В области поясницы и шеи есть подогрев, его также можно отключать кнопками управления.</t>
+  </si>
+  <si>
+    <t>Почему массажная накидка издаёт посторонние звуки при работе?</t>
+  </si>
+  <si>
+    <t>Это нормально, что массажная накидка шумит?</t>
+  </si>
+  <si>
+    <t>Что делать, если слышен звук, будто что-то задевает внутри?</t>
+  </si>
+  <si>
+    <t>Издаёт ли массажная накидка щелчки или треск во время работы?</t>
+  </si>
+  <si>
+    <t>Нужно ли обращаться в сервис, если слышны посторонние звуки?</t>
+  </si>
+  <si>
+    <t>Это нормальные звуки. Если нужна помощь в использовании, свяжитесь с нами в чате поддержки покупателей по WhatsApp: 7 (962) 559-29-48.</t>
+  </si>
+  <si>
+    <t>Почему не включается обогрев в подушке массажной накидки?</t>
+  </si>
+  <si>
+    <t>Как включить обогрев в подушке массажной накидки?</t>
+  </si>
+  <si>
+    <t>Сколько режимов обогрева предусмотрено в массажной накидке?</t>
+  </si>
+  <si>
+    <t>Это нормально, что обогрев не сразу чувствуется?</t>
+  </si>
+  <si>
+    <t>Можно ли регулировать температуру обогрева в подушке?</t>
+  </si>
+  <si>
+    <t>Обогрев включается соответствующей кнопкой, есть 2–3 уровня интенсивности, температура набирается постепенно.</t>
+  </si>
+  <si>
+    <t>Какая мощность у массажной накидки?</t>
+  </si>
+  <si>
+    <t>Сколько ватт потребляет массажная накидка?</t>
+  </si>
+  <si>
+    <t>Какова мощность работы устройства?</t>
+  </si>
+  <si>
+    <t>Какая электрическая мощность у массажёра?</t>
+  </si>
+  <si>
+    <t>Сколько электроэнергии тратит массажная накидка?</t>
+  </si>
+  <si>
+    <t>Мощность у данного массажёра 15 Вт.</t>
+  </si>
+  <si>
+    <t>Подходит ли тёмно-синяя массажная накидка для автомобиля?</t>
+  </si>
+  <si>
+    <t>Чем отличается синяя массажная накидка от черной?</t>
+  </si>
+  <si>
+    <t>Какие функции есть у чёрной модели массажной накидки?</t>
+  </si>
+  <si>
+    <t>Есть ли подогрев у синей массажной накидки?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать обе модели массажной накидки в авто?</t>
+  </si>
+  <si>
+    <t>Черная накидка (артикул WB: 292127988) имеет 9 зон вибрации, управляемых с пульта, работает от сети и адаптера прикуривателя. Синяя накидка (артикул WB: 401476547) оснащена подогревом в области шеи (съёмная подушка на молнии, можно размещать от шеи до пяток) и массажёром для ног с прогревом около 37–42 градусов. Подогрев можно включать и отключать по желанию.</t>
+  </si>
+  <si>
+    <t>Подходит ли тёмно-синяя массажная накидка для машины и чем она лучше чёрной?</t>
+  </si>
+  <si>
+    <t>Чем отличается синяя массажная накидка от чёрной модели?</t>
+  </si>
+  <si>
+    <t>Какие преимущества у синей накидки для автомобиля?</t>
+  </si>
+  <si>
+    <t>Есть ли различия в функциях подогрева у чёрной и синей моделей?</t>
+  </si>
+  <si>
+    <t>Какая модель накидки более удобна для дома, а какая для машины?</t>
+  </si>
+  <si>
+    <t>Синяя накидка (артикул 401476547): полностью разборная (спинка, подголовник, сиденье), 30 массажных элементов в спинке, выбор интенсивности и зон, управление с пульта, подогрев в области спины, инфракрасный подогрев по бокам, подушка с 2 режимами подогрева и 4 вариантами вибрации, таймер 10/20/30 мин, блок питания, вес 5,8 кг. Для автомобиля удобнее благодаря мягкой спинке и креплению резинками. Чёрная накидка (артикулы 292127988 / 303987274): 9 виброзон по всей накидке, 9 режимов/интенсивностей, спинка управляется с пульта, инфракрасный прогрев верхней части спины и поясницы, подголовник с вращающимися массажными элементами (управление кнопкой сбоку), таймер 10/20/30 мин, блок питания + адаптер от прикуривателя, вес 2,1 кг.</t>
+  </si>
+  <si>
+    <t>Почему нет адаптера для прикуривателя 24 В?</t>
+  </si>
+  <si>
+    <t>Можно ли подключить массажную накидку к прикуривателю 24 В?</t>
+  </si>
+  <si>
+    <t>Есть ли переходник для использования в грузовике?</t>
+  </si>
+  <si>
+    <t>Как подключить массажную накидку к 24-вольтовой сети?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать устройство в автомобиле с бортовой сетью 24 В?</t>
+  </si>
+  <si>
+    <t>В комплекте идёт адаптер для прикуривателя 12 V (для легковых автомобилей). Для использования в сети 24 V (например, в грузовиках) необходимо приобрести отдельный блок для понижения напряжения с 24 до 12.</t>
+  </si>
+  <si>
+    <t>Можно ли наносить антицеллюлитный крем под лимфомассажёр?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать лимфомассажёр вместе с кремами или гелями?</t>
+  </si>
+  <si>
+    <t>Можно ли обматывать ноги плёнкой при использовании лимфомассажёра?</t>
+  </si>
+  <si>
+    <t>Как правильно ухаживать за кожей при процедурах с лимфомассажёром?</t>
+  </si>
+  <si>
+    <t>Когда лучше наносить антицеллюлитный крем — до или после массажа?</t>
+  </si>
+  <si>
+    <t>Лучше не наносить кремы и гели перед процедурой, чтобы не испачкать массажёр. Устройство само направлено на борьбу с целлюлитом, снимает отёки, улучшает кровоток и лимфоток. Пищевой плёнкой ноги обматывать тоже не стоит, так как манжеты подают воздух и могут пережимать. Крем лучше наносить после процедуры.</t>
+  </si>
+  <si>
+    <t>Почему лимфомассажёр только сжимает и разжимает, а эффекта массажа нет?</t>
+  </si>
+  <si>
+    <t>В чём смысл работы лимфодренажного массажёра?</t>
+  </si>
+  <si>
+    <t>Должен ли лимфомассажёр делать другие виды массажа, кроме сжатия?</t>
+  </si>
+  <si>
+    <t>Что даёт эффект дренажа при использовании лимфомассажёра?</t>
+  </si>
+  <si>
+    <t>Нормально ли, что массажёр просто надувается и сдувается?</t>
+  </si>
+  <si>
+    <t>В этом и заключается принцип работы лимфодренажного массажёра: за счёт сжимания и разжимания активируется приток лимфы, создаётся дренажный эффект. Это способствует расслаблению ног, снятию напряжения и появлению лёгкости.</t>
+  </si>
+  <si>
+    <t>Сколько процедур лимфомассажа можно делать подряд без перерыва?</t>
+  </si>
+  <si>
+    <t>Можно ли делать лимфомассаж каждый день?</t>
+  </si>
+  <si>
+    <t>Как часто можно использовать лимфомассажёр для профилактики?</t>
+  </si>
+  <si>
+    <t>Какой курс лимфодренажных процедур считается оптимальным?</t>
+  </si>
+  <si>
+    <t>Сколько раз в год можно проходить курс лимфомассажа?</t>
+  </si>
+  <si>
+    <t>Оптимальный курс составляет 10–15 процедур. Между ними рекомендуется делать перерыв 2–3 дня. Ежедневное использование нецелесообразно, так как организму нужно время на адаптацию и восстановление. Повторные курсы — 2–4 раза в год, профилактически можно делать 2 раза в неделю.</t>
+  </si>
+  <si>
+    <t>Какая мощность у лимфомассажёра?</t>
+  </si>
+  <si>
+    <t>Сколько ватт потребляет лимфомассажёр?</t>
+  </si>
+  <si>
+    <t>Какова электрическая мощность прибора?</t>
+  </si>
+  <si>
+    <t>Какая мощность у компрессора лимфомассажёра?</t>
+  </si>
+  <si>
+    <t>Сколько энергии тратит устройство при работе?</t>
+  </si>
+  <si>
+    <t>Потребляемая мощность — 24 Вт.</t>
+  </si>
+  <si>
+    <t>На какой объём ног рассчитан лимфомассажёр модель А-10 (артикул 208287182)?</t>
+  </si>
+  <si>
+    <t>Обхват бедра — до 65 см, обхват колена — до 59 см, обхват голени — до 50 см, обхват стопы — до 40 см.</t>
+  </si>
+  <si>
+    <t>Какой максимальный обхват бедра подходит для модели А-10?</t>
+  </si>
+  <si>
+    <t>Какой обхват голени допускает лимфомассажёр А-10?</t>
+  </si>
+  <si>
+    <t>Подойдёт ли модель А-10 при большом размере ноги?</t>
+  </si>
+  <si>
+    <t>Какие размеры стопы поддерживает лимфомассажёр А-10?</t>
+  </si>
+  <si>
+    <t>Можно ли включить только прогрев у лимфомассажёра модель А-10?</t>
+  </si>
+  <si>
+    <t>Нет, подогрев нельзя запускать отдельно без режима надува — массажёр для этого не предназначен.</t>
+  </si>
+  <si>
+    <t>Работает ли функция подогрева без массажа?</t>
+  </si>
+  <si>
+    <t>Есть ли у модели А-10 отдельный режим прогрева?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать лимфомассажёр как грелку?</t>
+  </si>
+  <si>
+    <t>Можно ли отключить надув и оставить только подогрев?</t>
+  </si>
+  <si>
+    <t>Почему лимфомассажёр модель А-10 сжимает слабо даже на самой сильной программе?</t>
+  </si>
+  <si>
+    <t>Какая максимальная сила давления у лимфомассажёра А-10?</t>
+  </si>
+  <si>
+    <t>Сколько кПа выдаёт самая сильная программа?</t>
+  </si>
+  <si>
+    <t>Можно ли увеличить давление свыше 32 кПа?</t>
+  </si>
+  <si>
+    <t>Почему давление кажется слабым при использовании?</t>
+  </si>
+  <si>
+    <t>Давление в массажёре регулируется в диапазоне от 16 кПа до 32 кПа.</t>
+  </si>
+  <si>
+    <t>На какой размер ног рассчитан лимфомассажёр (аксессуар) при мужском 46 размере одежды?</t>
+  </si>
+  <si>
+    <t>Длина изделия — 24 см (примерно 38 размер ноги). В модели предусмотрен открытый носок, поэтому она подходит для любого размера стопы.</t>
+  </si>
+  <si>
+    <t>Подойдёт ли массажёр для крупных мужских размеров ног?</t>
+  </si>
+  <si>
+    <t>Какой максимальный размер стопы поддерживает данная модель?</t>
+  </si>
+  <si>
+    <t>Если стопа больше 45 размера, можно ли пользоваться этим массажёром?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать массажёр при маленьком размере ноги?</t>
+  </si>
+  <si>
+    <t>Почему нельзя использовать лимфомассажёр при онкологии?</t>
+  </si>
+  <si>
+    <t>Можно ли применять лимфомассажёр при онкологических заболеваниях?</t>
+  </si>
+  <si>
+    <t>Какие противопоказания у лимфомассажёра связаны с онкологией?</t>
+  </si>
+  <si>
+    <t>Почему тепловое воздействие опасно при онкологии?</t>
+  </si>
+  <si>
+    <t>Нужно ли консультироваться с врачом перед использованием при онкологии?</t>
+  </si>
+  <si>
+    <t>Использование противопоказано из-за тепловых процедур. Чтобы не спровоцировать обострение, необходимо обязательно проконсультироваться с лечащим врачом.</t>
   </si>
 </sst>
 </file>
@@ -87,8 +2419,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -426,32 +2764,5304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9C76FB-0E8B-4191-8625-F60C98342CCE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A528" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A537" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A552" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A553" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A557" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A560" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A561" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A562" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A566" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A567" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A572" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A574" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A576" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A577" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A582" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A587" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A592" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A602" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A607" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A610" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A612" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A613" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A617" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A618" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A622" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A627" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A628" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A631" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A637" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A639" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A640" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A642" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A646" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A647" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A652" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A655" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>772</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>773</v>
+      </c>
+      <c r="B657" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A658" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B658" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B659" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B660" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A661" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B661" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/files/kb.xlsx
+++ b/files/kb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\python\Maldina_AI\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F01B5-471F-4CA4-98B9-F2D93DA7AC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3000D-4759-44D9-8F48-C21E48C19A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31114" yWindow="0" windowWidth="14915" windowHeight="11709" xr2:uid="{06C4C993-85AB-4544-B2D8-3913DAB2BB78}"/>
+    <workbookView xWindow="16371" yWindow="0" windowWidth="14915" windowHeight="11709" xr2:uid="{06C4C993-85AB-4544-B2D8-3913DAB2BB78}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1319">
   <si>
     <t xml:space="preserve"> Здравствуйте. Пожалуйста, свяжитесь с нами в чате поддержки по WhatsApp 7 (962) 559-29-48. Проверим товар, если брак подтвердиться мы сделаем возврат</t>
   </si>
@@ -2384,13 +2384,1717 @@
   <si>
     <t>Использование противопоказано из-за тепловых процедур. Чтобы не спровоцировать обострение, необходимо обязательно проконсультироваться с лечащим врачом.</t>
   </si>
+  <si>
+    <t>Есть ли инструкция на русском языке к лимфомассажёру?</t>
+  </si>
+  <si>
+    <t>Где можно получить русскую инструкцию к массажёру?</t>
+  </si>
+  <si>
+    <t>Прилагается ли руководство на русском языке?</t>
+  </si>
+  <si>
+    <t>Можно ли скачать инструкцию на русском?</t>
+  </si>
+  <si>
+    <t>Как получить инструкцию по эксплуатации на русском языке?</t>
+  </si>
+  <si>
+    <t>Инструкция на русском языке есть, её можно запросить у продавца.</t>
+  </si>
+  <si>
+    <t>Нужна ли консультация врача при использовании лимфомассажёра при артрозе и варикозе?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать лимфомассажёр при варикозе?</t>
+  </si>
+  <si>
+    <t>Можно ли пользоваться прибором при артрозе?</t>
+  </si>
+  <si>
+    <t>Есть ли противопоказания по лимфомассажу при проблемах с суставами и венами?</t>
+  </si>
+  <si>
+    <t>Кому нужно проконсультироваться с врачом перед использованием массажёра?</t>
+  </si>
+  <si>
+    <t>При наличии артроза и варикоза консультация врача обязательна, так как стадии заболеваний бывают разные. На начальных стадиях использование допустимо, но решение должен принимать лечащий врач.</t>
+  </si>
+  <si>
+    <t>В чём отличие лимфомассажёра RD-A82 (арт. 314134430) от модели арт. 208287182?</t>
+  </si>
+  <si>
+    <t>Какие особенности у лимфомассажёра RD-A82?</t>
+  </si>
+  <si>
+    <t>Какие функции есть у модели 208287182?</t>
+  </si>
+  <si>
+    <t>Какая гарантия у каждой модели?</t>
+  </si>
+  <si>
+    <t>Чем отличаются камеры и режимы работы у RD-A82 и 208287182?</t>
+  </si>
+  <si>
+    <t>Модель RD-A82 (арт. 314134430): цельные сапоги-чулки на молнии, 4 режима, 8 уровней интенсивности, 4 камеры наддува, гарантия 2 года. Модель 208287182: манжеты на липучках (регулируются по объёму ноги), подогрев в области колен и стоп с регулировкой температуры, 3 режима давления, 3 режима работы, гарантия 1 год.</t>
+  </si>
+  <si>
+    <t>Будет ли массаж на пятке при использовании лимфомассажёра?</t>
+  </si>
+  <si>
+    <t>Есть ли воздействие на пятку при работе массажёра?</t>
+  </si>
+  <si>
+    <t>Чувствуется ли массаж на стопах, включая пятки?</t>
+  </si>
+  <si>
+    <t>Какие функции реализованы в зоне стоп?</t>
+  </si>
+  <si>
+    <t>Можно ли регулировать интенсивность воздействия на пятки?</t>
+  </si>
+  <si>
+    <t>В зоне стоп предусмотрены функции подогрева и прессотерапии: нагнетание и сдув воздуха. Интенсивность зависит от выбранного режима на пульте.</t>
+  </si>
+  <si>
+    <t>Можно ли подключить лимфомассажёр сразу на руки, живот и ноги одновременно?</t>
+  </si>
+  <si>
+    <t>Сразу подключать весь комплект не получится и не рекомендуется врачами, так как пребывание всего организма под компрессией может создать чрезмерную нагрузку на сердечно-сосудистую систему.</t>
+  </si>
+  <si>
+    <t>Разрешено ли использовать все манжеты одновременно?</t>
+  </si>
+  <si>
+    <t>Можно ли проводить процедуру для всего тела сразу?</t>
+  </si>
+  <si>
+    <t>Почему нельзя одновременно подключать массажёр на руки, ноги и живот?</t>
+  </si>
+  <si>
+    <t>Есть ли ограничения по одновременному использованию разных зон?</t>
+  </si>
+  <si>
+    <t>Аппарат работает только 10 минут?</t>
+  </si>
+  <si>
+    <t>Можно ли увеличить время работы аппарата больше 10 минут?</t>
+  </si>
+  <si>
+    <t>Какие интервалы времени доступны на таймере?</t>
+  </si>
+  <si>
+    <t>Как установить таймер на 20 или 30 минут?</t>
+  </si>
+  <si>
+    <t>Останавливается ли аппарат автоматически после окончания времени?</t>
+  </si>
+  <si>
+    <t>На блоке управления есть кнопка установки таймера — его можно выставить от 10 до 30 минут по вашему желанию.</t>
+  </si>
+  <si>
+    <t>Как выключить лимфомассажёр RD-A82 — держать кнопку или выдернуть из розетки?</t>
+  </si>
+  <si>
+    <t>Есть ли кнопка включения/выключения на RD-A82?</t>
+  </si>
+  <si>
+    <t>Как правильно завершить работу массажёра — кнопкой или отключением от сети?</t>
+  </si>
+  <si>
+    <t>Нужно ли держать кнопку ON/OFF, чтобы выключить массажёр?</t>
+  </si>
+  <si>
+    <t>Можно ли выключать прибор, просто выдернув из розетки?</t>
+  </si>
+  <si>
+    <t>Выключение выполняется на блоке управления: левая нижняя кнопка (ON/OFF). Нужно нажать и удерживать её несколько секунд. После этого массажёр выключится.</t>
+  </si>
+  <si>
+    <t>Сколько манжет можно подключить одновременно в лимфомассажёрах RD-A80 и RD-A82?</t>
+  </si>
+  <si>
+    <t>Можно ли подключать все манжеты сразу?</t>
+  </si>
+  <si>
+    <t>Какие комбинации манжет доступны в RD-A80?</t>
+  </si>
+  <si>
+    <t>Как подключить только одну манжету к массажёру?</t>
+  </si>
+  <si>
+    <t>Зачем нужна заглушка на блоке при использовании одной манжеты?</t>
+  </si>
+  <si>
+    <t>Можно использовать одну или две манжеты одновременно. В модели RD-A80 доступны комбинации: рука + ноги, рука + пояс, ноги + пояс. Если подключена только одна манжета, второй выход на блоке должен быть закрыт заглушкой.</t>
+  </si>
+  <si>
+    <t>Какой лимфомассажёр (RD-A80 или RD-A82) позволяет более тонко регулировать интенсивность давления и есть ли режим для хрупких сосудов?</t>
+  </si>
+  <si>
+    <t>Есть ли у RD-A80 или RD-A82 щадящий режим для слабых сосудов?</t>
+  </si>
+  <si>
+    <t>Какая минимальная интенсивность давления доступна?</t>
+  </si>
+  <si>
+    <t>Можно ли настроить массажёр для мягкого воздействия?</t>
+  </si>
+  <si>
+    <t>Какой аппарат лучше при чувствительных сосудах — RD-A80 или RD-A82?</t>
+  </si>
+  <si>
+    <t>Это компрессионные массажёры, которые работают за счёт нагнетания воздуха и сдавливания частей тела. Даже на самом слабом режиме давление достаточно ощутимое. При проблемах с сосудами необходимо обязательно проконсультироваться с врачом перед использованием.</t>
+  </si>
+  <si>
+    <t>Какая длина шнура у адаптера питания массажёра для ног (арт. 20828718)?</t>
+  </si>
+  <si>
+    <t>Какой длины кабель у блока питания массажёра 20828718?</t>
+  </si>
+  <si>
+    <t>Хватает ли длины шнура, чтобы подключить массажёр на расстоянии от розетки?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать удлинитель для подключения массажёра?</t>
+  </si>
+  <si>
+    <t>Есть ли разные варианты длины кабеля у этой модели?</t>
+  </si>
+  <si>
+    <t>Длина шнура — 140 см.</t>
+  </si>
+  <si>
+    <t>Какая максимальная интенсивность давления у лимфомассажёров RD-A80 и RD-A82?</t>
+  </si>
+  <si>
+    <t>Сколько мм рт. ст. создаёт массажёр на максимальном режиме?</t>
+  </si>
+  <si>
+    <t>Какой диапазон давления доступен в RD-A80 и RD-A82?</t>
+  </si>
+  <si>
+    <t>Насколько сильное давление оказывает массажёр?</t>
+  </si>
+  <si>
+    <t>С какой интенсивности лучше начинать процедуры новичкам?</t>
+  </si>
+  <si>
+    <t>Диапазон давления — от 20 до 240 mmHg. Это позволяет проводить процедуры, имитирующие профессиональный компрессионный массаж. Новичкам рекомендуется начинать с минимальных значений.</t>
+  </si>
+  <si>
+    <t>Как работает надувание и сдувание в лимфомассажёрах RD-A80 и RD-A82?</t>
+  </si>
+  <si>
+    <t>Есть ли у массажёра функция автоматического сдува воздуха?</t>
+  </si>
+  <si>
+    <t>Как выходит воздух из манжет после процедуры?</t>
+  </si>
+  <si>
+    <t>Нужно ли вручную стравливать воздух из манжет?</t>
+  </si>
+  <si>
+    <t>Почему воздух выходит постепенно, а не сразу?</t>
+  </si>
+  <si>
+    <t>У этих моделей нет принудительного сдувания. После прекращения нагнетания воздуха открываются клапаны, и воздух постепенно выходит из камер.</t>
+  </si>
+  <si>
+    <t>Продаются ли отдельно расширители на ноги для лимфомассажёра (на молнии)?</t>
+  </si>
+  <si>
+    <t>Можно ли купить дополнительные вставки-расширители для манжет?</t>
+  </si>
+  <si>
+    <t>Есть ли расширители для людей с большим объёмом ног?</t>
+  </si>
+  <si>
+    <t>Подходят ли универсальные расширители к этой модели?</t>
+  </si>
+  <si>
+    <t>Будут ли расширители для манжет доступны позже?</t>
+  </si>
+  <si>
+    <t>В данный момент расширители отдельно не предлагаются. Благодарим за обратную связь — в будущем планируется добавить их в ассортимент.</t>
+  </si>
+  <si>
+    <t>Как узнать размер лимфомассажёров RD-A80 и RD-A82?</t>
+  </si>
+  <si>
+    <t>Какие размеры ноги поддерживает лимфомассажёр RD-A80?</t>
+  </si>
+  <si>
+    <t>Какие параметры ноги подходят для модели RD-A82?</t>
+  </si>
+  <si>
+    <t>Подойдёт ли массажёр, если обхват голени больше 44 см?</t>
+  </si>
+  <si>
+    <t>Как определить, подходит ли модель по размерам?</t>
+  </si>
+  <si>
+    <t>Обхват бедра — до 64 см, колена — до 54 см, голени — до 44 см, стопы — до 28 см. Перед покупкой рекомендуется измерить свои параметры, чтобы убедиться, что модель подходит.</t>
+  </si>
+  <si>
+    <t>Телефон не видит умное кольцо, что делать?</t>
+  </si>
+  <si>
+    <t>Почему смартфон не находит кольцо по Bluetooth?</t>
+  </si>
+  <si>
+    <t>Как подключить умное кольцо к телефону?</t>
+  </si>
+  <si>
+    <t>Что делать, если кольцо не определяется в списке устройств?</t>
+  </si>
+  <si>
+    <t>Нужно ли заряжать кольцо перед первым подключением?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Зарядите кольцо около 2 часов, включите Bluetooth и ищите устройство под названием </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChipietRing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Может ли умное кольцо вибрировать при получении SMS?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли умное кольцо уведомления о звонках и сообщениях?</t>
+  </si>
+  <si>
+    <t>Есть ли вибросигнал в умном кольце?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать умное кольцо как устройство для уведомлений?</t>
+  </si>
+  <si>
+    <t>Какие функции есть у умного кольца, кроме трекинга здоровья?</t>
+  </si>
+  <si>
+    <t>Нет, кольцо не вибрирует и не предназначено для получения уведомлений. Его функция — только трекинг показателей здоровья.</t>
+  </si>
+  <si>
+    <t>Подходит ли умное кольцо к любому телефону?</t>
+  </si>
+  <si>
+    <t>Совместимо ли умное кольцо с Android и iOS?</t>
+  </si>
+  <si>
+    <t>Можно ли подключить кольцо к любому смартфону?</t>
+  </si>
+  <si>
+    <t>Работает ли умное кольцо с айфоном?</t>
+  </si>
+  <si>
+    <t>Есть ли ограничения по моделям телефонов для подключения кольца?</t>
+  </si>
+  <si>
+    <t>Да.</t>
+  </si>
+  <si>
+    <t>Можно ли ходить в баню с умным кольцом?</t>
+  </si>
+  <si>
+    <t>Разрешено ли использовать умное кольцо в сауне?</t>
+  </si>
+  <si>
+    <t>Можно ли надевать кольцо в хамам или парную?</t>
+  </si>
+  <si>
+    <t>Что произойдёт с кольцом при высоких температурах?</t>
+  </si>
+  <si>
+    <t>Есть ли защита у кольца от перепадов температуры?</t>
+  </si>
+  <si>
+    <t>Можно, но не рекомендуется: перепады температур могут ускорить износ аккумулятора и повлиять на герметичность корпуса.</t>
+  </si>
+  <si>
+    <t>Считает ли умное кольцо шаги?</t>
+  </si>
+  <si>
+    <t>Есть ли у кольца встроенный счётчик шагов?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать умное кольцо как шагомер?</t>
+  </si>
+  <si>
+    <t>Подсчитывает ли кольцо ежедневную активность?</t>
+  </si>
+  <si>
+    <t>Какие показатели активности измеряет умное кольцо?</t>
+  </si>
+  <si>
+    <t>Да, в кольце есть функция шагомера.</t>
+  </si>
+  <si>
+    <t>Как правильно подобрать размер умного кольца и на какой палец его лучше носить?</t>
+  </si>
+  <si>
+    <t>На какой палец лучше надевать умное кольцо?</t>
+  </si>
+  <si>
+    <t>Как измерить размер пальца для выбора кольца?</t>
+  </si>
+  <si>
+    <t>Как рассчитать российский размер кольца по обхвату?</t>
+  </si>
+  <si>
+    <t>Можно ли носить кольцо на большом пальце?</t>
+  </si>
+  <si>
+    <t>Размер определяется по обхвату пальца: измерьте палец лентой или ниткой, затем разделите длину на 3,14 — это будет российский размер. Носить можно на среднем, указательном или безымянном пальце — выбирайте по удобству.</t>
+  </si>
+  <si>
+    <t>Как называется модель умного кольца?</t>
+  </si>
+  <si>
+    <t>Подскажите модель кольца?</t>
+  </si>
+  <si>
+    <t>Что за модель этого умного кольца?</t>
+  </si>
+  <si>
+    <t>Какое точное название у кольца?</t>
+  </si>
+  <si>
+    <t>Какая версия умного кольца представлена?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Модель называется </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doziva Ring Y-10 Pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Что измеряет термометр в умном кольце?</t>
+  </si>
+  <si>
+    <t>Есть ли у кольца функция измерения температуры?</t>
+  </si>
+  <si>
+    <t>Какую температуру показывает умное кольцо?</t>
+  </si>
+  <si>
+    <t>Измеряет ли кольцо температуру кожи или тела?</t>
+  </si>
+  <si>
+    <t>Для чего в кольце встроен термометр</t>
+  </si>
+  <si>
+    <t>Термометр измеряет температуру тела.</t>
+  </si>
+  <si>
+    <t>Насколько размеры умных колец соответствуют более дорогим моделям (Oura, Samsung и др.)?</t>
+  </si>
+  <si>
+    <t>Можно ли доверять размерному ряду этих колец?</t>
+  </si>
+  <si>
+    <t>Совпадают ли размеры с международными стандартами?</t>
+  </si>
+  <si>
+    <t>Как сравнить размеры умного кольца с Oura или Samsung?</t>
+  </si>
+  <si>
+    <t>Где посмотреть таблицу размеров для проверки?</t>
+  </si>
+  <si>
+    <t>Размеры соответствуют российской размерной сетке, указанной в карточке товара.</t>
+  </si>
+  <si>
+    <t>Размер умного кольца идёт как у обычных или нужно брать больше из-за датчиков? Можно ли примерить в ПВЗ?</t>
+  </si>
+  <si>
+    <t>Нужно ли брать умное кольцо на полразмера больше?</t>
+  </si>
+  <si>
+    <t>Совпадают ли размеры умного кольца с обычными кольцами?</t>
+  </si>
+  <si>
+    <t>Влияют ли датчики на посадку кольца?</t>
+  </si>
+  <si>
+    <t>Можно ли проверить размер кольца при получении в ПВЗ?</t>
+  </si>
+  <si>
+    <t>Размеры соответствуют российской размерной сетке, выпуклостей над датчиками нет. Примерка доступна в пункте выдачи заказов (ПВЗ).</t>
+  </si>
+  <si>
+    <t>Есть ли в умном кольце диктофон?</t>
+  </si>
+  <si>
+    <t>Можно ли записывать звук с помощью кольца?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли умное кольцо функцию записи разговоров?</t>
+  </si>
+  <si>
+    <t>Есть ли микрофон для записи в умном кольце?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать кольцо как диктофон?</t>
+  </si>
+  <si>
+    <t>Нет, в кольце нет диктофона.</t>
+  </si>
+  <si>
+    <t>Сколько держит заряд умное кольцо?</t>
+  </si>
+  <si>
+    <t>Как долго работает кольцо без подзарядки?</t>
+  </si>
+  <si>
+    <t>На сколько дней хватает аккумулятора умного кольца?</t>
+  </si>
+  <si>
+    <t>Сколько времени кольцо может проработать от одного заряда?</t>
+  </si>
+  <si>
+    <t>Какой срок автономной работы у умного кольца?</t>
+  </si>
+  <si>
+    <t>В среднем заряд держится 10–15 дней.</t>
+  </si>
+  <si>
+    <t>Есть ли в умном кольце NFC?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли кольцо бесконтактную оплату?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать кольцо для оплаты через NFC?</t>
+  </si>
+  <si>
+    <t>Есть ли в модели функция NFC-чипа?</t>
+  </si>
+  <si>
+    <t>Можно ли привязать банковскую карту к умному кольцу?</t>
+  </si>
+  <si>
+    <t>Нет.</t>
+  </si>
+  <si>
+    <t>Какое приложение нужно скачать для умного кольца?</t>
+  </si>
+  <si>
+    <t>С каким приложением работает умное кольцо?</t>
+  </si>
+  <si>
+    <t>Где скачать приложение для умного кольца?</t>
+  </si>
+  <si>
+    <t>Как называется программа для подключения кольца?</t>
+  </si>
+  <si>
+    <t>Какое ПО требуется для управления кольцом?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Приложение </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doziva Ring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Что делать, если умное кольцо не заряжается и не горит индикатор?</t>
+  </si>
+  <si>
+    <t>Какой цвет индикатора при зарядке кольца?</t>
+  </si>
+  <si>
+    <t>Почему не горит индикатор при зарядке?</t>
+  </si>
+  <si>
+    <t>Как понять, что кольцо заряжено?</t>
+  </si>
+  <si>
+    <t>Что делать, если кольцо не реагирует на зарядку?</t>
+  </si>
+  <si>
+    <t>При зарядке должен загораться красный индикатор (мигает во время зарядки). Когда устройство полностью заряжено — индикатор становится зелёным. Попробуйте надеть кольцо и подключить его к смартфону для проверки работы.</t>
+  </si>
+  <si>
+    <t>Почему умное кольцо не работает на айфоне после зарядки, а на андроиде некорректно считает сон?</t>
+  </si>
+  <si>
+    <t>Почему кольцо не переподключается после зарядки?</t>
+  </si>
+  <si>
+    <t>Почему кольцо неправильно регистрирует сон?</t>
+  </si>
+  <si>
+    <t>Что делать, если приложение не фиксирует сон на Android?</t>
+  </si>
+  <si>
+    <t>Нужно ли включать фоновый режим для корректной работы кольца?</t>
+  </si>
+  <si>
+    <t>Проверьте, чтобы кольцо было полностью заряжено. На айфоне и андроиде необходимо включить Bluetooth и дать приложению разрешение на работу в фоновом режиме. В настройках телефона можно найти это через поиск по слову «фоновый режим».</t>
+  </si>
+  <si>
+    <t>Почему умное кольцо отключается когда закрываю приложение?</t>
+  </si>
+  <si>
+    <t>Как настроить умное кольцо чтобы оно работало в фоновом режиме?</t>
+  </si>
+  <si>
+    <t>Можно ли сделать так чтобы кольцо не теряло соединение при выходе из приложения?</t>
+  </si>
+  <si>
+    <t>Нормально ли что связь с кольцом прерывается когда приложение неактивно?</t>
+  </si>
+  <si>
+    <t>Как разрешить приложению умного кольца работать в фоне?</t>
+  </si>
+  <si>
+    <t>Это нормальная ситуация - необходимо разрешить приложению работать в фоновом режиме в настройках телефона. После этого кольцо будет поддерживать соединение даже при закрытом приложении. Если возникнут дополнительные вопросы, обратитесь в службу поддержки.</t>
+  </si>
+  <si>
+    <t>Добрый день! Кольцо глянцевое или матовое?</t>
+  </si>
+  <si>
+    <t>Какая поверхность у умного кольца?</t>
+  </si>
+  <si>
+    <t>Матовое ли покрытие у кольца?</t>
+  </si>
+  <si>
+    <t>Есть ли глянцевый блеск у умного кольца?</t>
+  </si>
+  <si>
+    <t>Какое покрытие имеет умное кольцо - матовое или глянцевое?</t>
+  </si>
+  <si>
+    <t>Кольцо имеет матовое покрытие.</t>
+  </si>
+  <si>
+    <t>Есть ли вибро будильник?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли кольцо функцию вибрации для будильника?</t>
+  </si>
+  <si>
+    <t>Можно ли настроить вибросигнал на кольце?</t>
+  </si>
+  <si>
+    <t>Есть ли в умном кольце функция вибрационного оповещения?</t>
+  </si>
+  <si>
+    <t>Умеет ли кольцо вибрировать для пробуждения?</t>
+  </si>
+  <si>
+    <t>Нет, функция вибро будильника в умном кольце отсутствует. Все доступные функции указаны в описании товара.</t>
+  </si>
+  <si>
+    <t>Можно артикул на орбизы?</t>
+  </si>
+  <si>
+    <t>Какой артикул у орбизов?</t>
+  </si>
+  <si>
+    <t>Где найти артикул орбизов для заказа?</t>
+  </si>
+  <si>
+    <t>Подскажите номер артикула орбизов?</t>
+  </si>
+  <si>
+    <t>Как найти орбизы по артикулу?</t>
+  </si>
+  <si>
+    <t>Орбизы доступны в двух вариантах: 10 000 шт по артикулу WB: 224881518 и 96 000 шт по артикулу WB: 253793079.</t>
+  </si>
+  <si>
+    <t>А сколько они мм?</t>
+  </si>
+  <si>
+    <t>Какой размер орбизов после замачивания?</t>
+  </si>
+  <si>
+    <t>Сколько миллиметров орбизы когда разбухнут?</t>
+  </si>
+  <si>
+    <t>Какой диаметр у орбизов в готовом виде?</t>
+  </si>
+  <si>
+    <t>До какого размера вырастают орбизы?</t>
+  </si>
+  <si>
+    <t>После замачивания в воде (3-4 часа) орбизы вырастают до 7-8 мм в диаметре. Изначальный размер составляет несколько миллиметров.</t>
+  </si>
+  <si>
+    <t>Здравствуйте, когда вырастут орбизы, через сколько они станут снова маленькими?</t>
+  </si>
+  <si>
+    <t>Как долго орбизы остаются большими после замачивания?</t>
+  </si>
+  <si>
+    <t>Надо ли орбизы хранить в воде после того как они выросли?</t>
+  </si>
+  <si>
+    <t>Через какое время орбизы высыхают и уменьшаются?</t>
+  </si>
+  <si>
+    <t>Можно ли восстановить размер орбизов если они высохли?</t>
+  </si>
+  <si>
+    <t>Орбизы высыхают постепенно без воды. Лучше хранить их в закрытой бутылке с водой. Если орбизы высохли или уменьшились в размере, просто снова положите их в теплую воду и вырастите до нужного размера перед использованием.</t>
+  </si>
+  <si>
+    <t>Здравствуйте чем растворить орбизы?</t>
+  </si>
+  <si>
+    <t>Как убрать орбизы из раковины если засорилась?</t>
+  </si>
+  <si>
+    <t>Чем можно растворить орбизы в канализации?</t>
+  </si>
+  <si>
+    <t>Что делать если орбизы забили трубу в раковине?</t>
+  </si>
+  <si>
+    <t>Как очистить засор из орбизов в сливе?</t>
+  </si>
+  <si>
+    <t>В этой ситуации лучше открутить сифон и вытряхнуть орбизы механически. Также можно воспользоваться специальным средством для очистки труб от засоров. Полностью растворить орбизы химическими средствами сложно, поэтому рекомендуется физическое удаление.</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Что касается качества орбизов в комплекте, они экологичные?</t>
+  </si>
+  <si>
+    <t>Экологичные ли орбизы в наборе?</t>
+  </si>
+  <si>
+    <t>Безопасны ли орбизы для окружающей среды?</t>
+  </si>
+  <si>
+    <t>Можно ли считать орбизы экологически чистыми?</t>
+  </si>
+  <si>
+    <t>Вредят ли орбизы природе при использовании?</t>
+  </si>
+  <si>
+    <t>Да, орбизы экологичны. Это значит, что они не вредят окружающей среде, высыхают без воды и становятся по размеру как бисеринки. Их можно просто подмести и выбросить в обычный мусор.</t>
+  </si>
+  <si>
+    <t>Если их проглотит человек либо животное размером с кошку, безопасно ли это?</t>
+  </si>
+  <si>
+    <t>Что будет если случайно проглотить орбизы?</t>
+  </si>
+  <si>
+    <t>Опасны ли орбизы при попадании в желудок?</t>
+  </si>
+  <si>
+    <t>Можно ли глотать орбизы детям и животным?</t>
+  </si>
+  <si>
+    <t>Безопасны ли орбизы если их съесть?</t>
+  </si>
+  <si>
+    <t>Глотать орбизы ни животным, ни людям не рекомендуется, так как это может вызвать раздражение и проблемы с пищеварением. Поэтому не стоит пользоваться оружием с орбизами детям до трех лет.</t>
+  </si>
+  <si>
+    <t>Так же, если их держать долго в воде, сутки будут ли они больше 8мм?</t>
+  </si>
+  <si>
+    <t>Вырастут ли орбизы больше 8 мм если держать их в воде дольше?</t>
+  </si>
+  <si>
+    <t>Какой максимальный размер орбизов при длительном замачивании?</t>
+  </si>
+  <si>
+    <t>Увеличиваются ли орбизы если их оставить в воде на сутки?</t>
+  </si>
+  <si>
+    <t>Могут ли орбизы стать больше заявленного размера?</t>
+  </si>
+  <si>
+    <t>Орбизы не вырастут больше заявленного размера даже при длительном нахождении в воде. Максимальный размер составляет 7-8 мм. Рекомендуется вырастить орбизы до необходимого размера, а остатки хранить в закрытой бутылке с водой для дальнейшего использования.</t>
+  </si>
+  <si>
+    <t>Недостатки: С боку была глубокая трещина</t>
+  </si>
+  <si>
+    <t>Что делать если автомат пришел с трещиной?</t>
+  </si>
+  <si>
+    <t>Как поступить если игрушка имеет повреждения при получении?</t>
+  </si>
+  <si>
+    <t>Куда обращаться если автомат оказался с браком?</t>
+  </si>
+  <si>
+    <t>Что делать при обнаружении дефектов на ПВЗ?</t>
+  </si>
+  <si>
+    <t>Просим проверять товар на ПВЗ перед получением. При обнаружении брака (трещины, сколы) или недокомплекта не забирайте товар домой. Обязательно предупредите менеджера ПВЗ сделать пометку "БРАК", чтобы товар вернулся на склад, а не поступил повторно в продажу. Проверяйте комплектность - иногда недобросовестные покупатели могут изъять детали перед возвратом.</t>
+  </si>
+  <si>
+    <t>Почему не проверяете перед отправкой?</t>
+  </si>
+  <si>
+    <t>Зачем отправляете товар не проверив его на браки?</t>
+  </si>
+  <si>
+    <t>Почему нет контроля качества на складе?</t>
+  </si>
+  <si>
+    <t>Можете ли проверять автоматы перед отгрузкой?</t>
+  </si>
+  <si>
+    <t>Почему товар приходит с дефектами?</t>
+  </si>
+  <si>
+    <t>Приносим извинения за брак. Товар не проверяется на складе, поскольку поступает с завода в заводской пленке, которую мы не вскрываем. Это гарантирует, что товар приходит невскрытым и ничего не выпадает при транспортировке. При больших объемах складские работники не успевают проверять каждую единицу. В случае брака или неисправности аккумулятора делаем бесплатную замену или забираем подтвержденный брак.</t>
+  </si>
+  <si>
+    <t>Почему автомат перестал стрелять?</t>
+  </si>
+  <si>
+    <t>Что делать если игрушечный автомат не стреляет?</t>
+  </si>
+  <si>
+    <t>Автомат не работает - в чем может быть причина?</t>
+  </si>
+  <si>
+    <t>Перестал функционировать автомат с орбизами что проверить?</t>
+  </si>
+  <si>
+    <t>Почему прекратил стрелять автомат с гелевыми шариками?</t>
+  </si>
+  <si>
+    <t>Проверьте следующие моменты: 1. Зарядите аккумулятор 1,5 часа. 2. Вырастите орбизы до 6-8 мм в течение 4 часов (поместите орбизы в воду на 2-3 часа повторно, возможно они уменьшились). 3. Разберите и проверьте отверстия внутри - возможно орбизы застряли. Если проблема не решилась, обратитесь в службу поддержки для дальнейшей диагностики.</t>
+  </si>
+  <si>
+    <t>Если будет брак можно будет вернуть без заявки?</t>
+  </si>
+  <si>
+    <t>Нужна ли заявка для возврата бракованного автомата?</t>
+  </si>
+  <si>
+    <t>Можно ли вернуть товар с браком без оформления документов?</t>
+  </si>
+  <si>
+    <t>Как происходит возврат если автомат оказался неисправным?</t>
+  </si>
+  <si>
+    <t>Обязательно ли подавать заявку при браке товара?</t>
+  </si>
+  <si>
+    <t>Вы можете проверить комплектацию на ПВЗ при получении. Если товар забрали с ПВЗ и он оказался неисправным, возврат происходит только через заявку по браку.</t>
+  </si>
+  <si>
+    <t>А товар возврату подлежит?</t>
+  </si>
+  <si>
+    <t>Можно ли вернуть автомат если он не подошел?</t>
+  </si>
+  <si>
+    <t>Подлежит ли игрушечный автомат возврату?</t>
+  </si>
+  <si>
+    <t>Принимаете ли вы обратно автоматы?</t>
+  </si>
+  <si>
+    <t>Возможен ли возврат товара после покупки?</t>
+  </si>
+  <si>
+    <t>Вы можете отказаться от товара при получении на ПВЗ.</t>
+  </si>
+  <si>
+    <t>Когда будет продаваться обойма отдельно?</t>
+  </si>
+  <si>
+    <t>Можно ли купить обойму для автомата отдельно?</t>
+  </si>
+  <si>
+    <t>Будут ли в продаже запасные обоймы?</t>
+  </si>
+  <si>
+    <t>Когда появятся дополнительные обоймы в ассортименте?</t>
+  </si>
+  <si>
+    <t>Планируется ли продажа обойм как отдельного товара?</t>
+  </si>
+  <si>
+    <t>К сожалению, на данный момент в ассортименте нет отдельных обойм для автомата.</t>
+  </si>
+  <si>
+    <t>Почему автомат плохо стреляет орбизами? Через раз!</t>
+  </si>
+  <si>
+    <t>Автомат стреляет не каждый раз - в чем причина?</t>
+  </si>
+  <si>
+    <t>Почему игрушечный автомат дает осечки при стрельбе?</t>
+  </si>
+  <si>
+    <t>Что делать если автомат стреляет нестабильно?</t>
+  </si>
+  <si>
+    <t>Из-за чего автомат стреляет орбизами через раз?</t>
+  </si>
+  <si>
+    <t>Обычно проблема возникает из-за несоблюдения двух основных правил: 1. Не подзарядили аккумулятор - необходимо заряжать 1,5 часа (светится - заряжается, погас - зарядился). 2. Не дорастили орбизы до необходимой величины 7-8 мм - требуется 3-4 часа. Если недоростили, положите их в теплую воду на пару часов. При сохранении проблемы обратитесь в службу поддержки для диагностики</t>
+  </si>
+  <si>
+    <t>Скажите как можно носить с собой орбизы чтобы они не высохли?</t>
+  </si>
+  <si>
+    <t>Как правильно транспортировать орбизы чтобы сохранить размер?</t>
+  </si>
+  <si>
+    <t>В чем лучше носить орбизы для игры вне дома?</t>
+  </si>
+  <si>
+    <t>Как хранить орбизы при переноске чтобы они остались большими?</t>
+  </si>
+  <si>
+    <t>В какой емкости носить орбизы чтобы они не уменьшились?</t>
+  </si>
+  <si>
+    <t>Орбизы нужно хранить в пластиковой бутылке с водой. Это предотвратит их высыхание и сохранит необходимый размер для игры.</t>
+  </si>
+  <si>
+    <t>Можно ли засыпать туда пульки 6мм пластиковые?</t>
+  </si>
+  <si>
+    <t>Подойдут ли пластиковые шарики 6мм для автомата?</t>
+  </si>
+  <si>
+    <t>Совместим ли автомат с пластиковыми пульками?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать твердые пульки вместо орбизов?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли автомат стрельбу пластиковыми шариками 6мм?</t>
+  </si>
+  <si>
+    <t>Производитель рекомендует использовать орбизы 7-8 мм. Меньшие по размеру пульки в некоторых моделях могут застревать. Рекомендуется использовать специальные орбизы, которые можно приобрести по артикулам WB: 224881518 или 253793079.</t>
+  </si>
+  <si>
+    <t>Здравствуйте, сколько весит упаковка орбизов?</t>
+  </si>
+  <si>
+    <t>Какой вес у пакета с орбизами?</t>
+  </si>
+  <si>
+    <t>Сколько грамм весят орбизы в упаковке?</t>
+  </si>
+  <si>
+    <t>Какая масса у набора орбизов?</t>
+  </si>
+  <si>
+    <t>Вес орбизов в сухом виде сколько составляет?</t>
+  </si>
+  <si>
+    <t>10 000 штук орбизов весят 50 грамм (в пакетике), 96 000 штук весят около 500 грамм (в бутылке).</t>
+  </si>
+  <si>
+    <t>Плохое качество - жалоба</t>
+  </si>
+  <si>
+    <t>Товар не соответствует заявленному качеству</t>
+  </si>
+  <si>
+    <t>Автомат работает плохо что делать?</t>
+  </si>
+  <si>
+    <t>Недовольны качеством игрушечного автомата</t>
+  </si>
+  <si>
+    <t>Как подать жалобу на некачественный товар?</t>
+  </si>
+  <si>
+    <t>Спасибо за ваш отзыв. Нам очень жаль, что автомат с орбизами не оправдал ваших ожиданий. Мы внимательно относимся к каждому отзыву и хотим разобраться в возникшей ситуации. Пожалуйста, свяжитесь с нами в службе поддержки, чтобы мы могли уточнить конкретные проблемы с товаром, предложить возможные варианты решения и при необходимости организовать замену или возврат. Для нас важно, чтобы каждый покупатель остался доволен покупкой.</t>
+  </si>
+  <si>
+    <t>Жалоба некомплект</t>
+  </si>
+  <si>
+    <t>В упаковке не хватает деталей автомата</t>
+  </si>
+  <si>
+    <t>Пришел автомат не в полной комплектации</t>
+  </si>
+  <si>
+    <t>Недостает комплектующих в наборе</t>
+  </si>
+  <si>
+    <t>Что делать если товар пришел без всех деталей?</t>
+  </si>
+  <si>
+    <t>Приносим искренние извинения за сложившуюся ситуацию с некомплектом товара. Мы внимательно относимся к каждому отзыву и обязательно разберёмся в данной ситуации. Пожалуйста, свяжитесь с нашей службой поддержки для решения вопроса. Благодарим за обратную связь - это помогает нам становиться лучше!</t>
+  </si>
+  <si>
+    <t>Попользовался несколько часов автомат перестал работать и внутри что то отвалилось автомат не ронял</t>
+  </si>
+  <si>
+    <t>Автомат сломался после нескольких часов использования что делать?</t>
+  </si>
+  <si>
+    <t>Внутри автомата что-то отвалилось при обычном использовании</t>
+  </si>
+  <si>
+    <t>Игрушка перестала работать без механических повреждений</t>
+  </si>
+  <si>
+    <t>Автомат вышел из строя сам по себе через несколько часов?</t>
+  </si>
+  <si>
+    <t>Приносим извинения за некорректную работу автомата. То, что поломка произошла при обычном использовании без падений, говорит о возможном производственном браке. Для решения вопроса свяжитесь с нашей службой поддержки - мы оперативно поможем решить проблему удобным для вас способом.</t>
+  </si>
+  <si>
+    <t>Почему долго одобряют возврат?</t>
+  </si>
+  <si>
+    <t>Сколько времени рассматривается заявка на возврат?</t>
+  </si>
+  <si>
+    <t>Почему медленно обрабатывают возврат товара?</t>
+  </si>
+  <si>
+    <t>Когда одобрят мой возврат автомата?</t>
+  </si>
+  <si>
+    <t>Долго ждем решения по возврату что делать?</t>
+  </si>
+  <si>
+    <t>Время ожидания рассмотрения возвратов временно увеличено по техническим причинам. Приносим извинения за задержку в обработке вашей заявки.</t>
+  </si>
+  <si>
+    <t>А корпус металлический или пластик?</t>
+  </si>
+  <si>
+    <t>Из какого материала сделан корпус автомата?</t>
+  </si>
+  <si>
+    <t>Металлический ли корпус у игрушечного автомата?</t>
+  </si>
+  <si>
+    <t>Какой материал используется для изготовления автомата?</t>
+  </si>
+  <si>
+    <t>Пластиковый или металлический корпус у автомата?</t>
+  </si>
+  <si>
+    <t>Используется качественный ударопрочный ABS-пластик, который соответствует всем стандартам безопасности для детских игрушек. Это не дешевый пластик, а специально подобранный материал, обеспечивающий оптимальное соотношение прочности и безопасности при игре.</t>
+  </si>
+  <si>
+    <t>А какой артикул автомата?</t>
+  </si>
+  <si>
+    <t>Какой артикул у игрушечного автомата?</t>
+  </si>
+  <si>
+    <t>Подскажите артикул автомата с орбизами</t>
+  </si>
+  <si>
+    <t>Где найти артикул автомата для заказа?</t>
+  </si>
+  <si>
+    <t>Какой номер артикула у этого автомата?</t>
+  </si>
+  <si>
+    <t>Артикул этого автомата ST709А. Он сделан специально под заказ на фабрике игрушек под брендом MalDina. Мы работаем как первые поставщики, а не перекупщики.</t>
+  </si>
+  <si>
+    <t>А у автомата электрообойма?</t>
+  </si>
+  <si>
+    <t>Обойма у автомата электрическая или механическая?</t>
+  </si>
+  <si>
+    <t>Как работает система подачи орбизов в автомате?</t>
+  </si>
+  <si>
+    <t>Автоматическая ли подача орбизов из магазина?</t>
+  </si>
+  <si>
+    <t>Электронная ли обойма у этого автомата?</t>
+  </si>
+  <si>
+    <t>Подгрузка орбизов из магазина осуществляется за счет механизма, который работает от аккумулятора автомата. Система подачи орбизов автоматическая и питается от встроенного аккумулятора.</t>
+  </si>
+  <si>
+    <t>На автомате можно выключить звук стрельбы?</t>
+  </si>
+  <si>
+    <t>Есть ли возможность отключить звуки у автомата?</t>
+  </si>
+  <si>
+    <t>Можно ли сделать автомат беззвучным?</t>
+  </si>
+  <si>
+    <t>Регулируется ли громкость стрельбы на автомате?</t>
+  </si>
+  <si>
+    <t>Как убрать звук выстрелов у игрушечного автомата?</t>
+  </si>
+  <si>
+    <t>Выключить звук невозможно. Это модельное оружие, разработанное на основе стандартного реального оружия. Инженеры создали его как копию взрослых аналогов с шумовыми эффектами как у настоящего оружия.</t>
+  </si>
+  <si>
+    <t>Материал дешёвый, проломлен корпус, оставил некритично. Стреляет недалеко. Цена явно завышена.</t>
+  </si>
+  <si>
+    <t>Автомат из плохого пластика и плохо стреляет</t>
+  </si>
+  <si>
+    <t>Качество материала не соответствует цене автомата</t>
+  </si>
+  <si>
+    <t>Корпус автомата треснул при использовании</t>
+  </si>
+  <si>
+    <t>Дальность стрельбы автомата меньше заявленной</t>
+  </si>
+  <si>
+    <t>Искренне сожалеем, что автомат не оправдал ваших ожиданий. Мы используем качественные материалы, а дальность стрельбы тестируется нашими специалистами. Качество подтверждено многочисленными отзывами покупателей. Просим сделать фотографии автомата для проверки модели и состояния товара. Свяжитесь с нашей службой поддержки для разбора ситуации.</t>
+  </si>
+  <si>
+    <t>Сколько орбизов вмещает резервуар идущий в комплекте, и где их можно носить с собой?</t>
+  </si>
+  <si>
+    <t>Какая вместимость магазина для орбизов в автомате?</t>
+  </si>
+  <si>
+    <t>Сколько орбизов помещается в контейнер автомата?</t>
+  </si>
+  <si>
+    <t>Какой объем резервуара для орбизов у автомата?</t>
+  </si>
+  <si>
+    <t>Сколько орбизов можно загрузить в автомат за раз?</t>
+  </si>
+  <si>
+    <t>В магазин (задняя ручка) помещается около 300-500 штук орбизов, верхний квадратный контейнер вмещает около 400-600 штук. Для переноски орбизов рекомендуется использовать пластиковую бутылку с водой.</t>
+  </si>
+  <si>
+    <t>Нужна зарядка для ружья с орбизами. Как можно заказать?</t>
+  </si>
+  <si>
+    <t>Где купить зарядное устройство для автомата с орбизами?</t>
+  </si>
+  <si>
+    <t>Можно ли отдельно заказать зарядку для автомата?</t>
+  </si>
+  <si>
+    <t>Как приобрести запасную зарядку для игрушечного автомата?</t>
+  </si>
+  <si>
+    <t>Продаете ли зарядные устройства для автоматов отдельно?</t>
+  </si>
+  <si>
+    <t>В ближайшее время комплектующие для этих автоматов, включая зарядные устройства, поступят в продажу. Рекомендуем подписаться на магазин для отслеживания поступления новых товаров. В скором времени сможем предоставить точный артикул зарядного устройства для данной модели.</t>
+  </si>
+  <si>
+    <t>Горит ли красный огонек на зарядке?</t>
+  </si>
+  <si>
+    <t>Должен ли светиться красный индикатор при зарядке автомата?</t>
+  </si>
+  <si>
+    <t>Нормально ли что горит красная лампочка на зарядном устройстве?</t>
+  </si>
+  <si>
+    <t>Что означает красный свет на зарядке автомата?</t>
+  </si>
+  <si>
+    <t>Индикатор зарядки должен гореть красным цветом?</t>
+  </si>
+  <si>
+    <t>В этой модели зарядка светится красным цветом во время процесса зарядки. После того, как свет зарядки исчезнет, зарядка будет завершена. Это нормальная работа индикатора заряда.</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Нигде не вижу ограничений по возрасту ребёнка. Подскажите пожалуйста от скольки лет?</t>
+  </si>
+  <si>
+    <t>С какого возраста можно использовать автомат с орбизами?</t>
+  </si>
+  <si>
+    <t>Для детей какого возраста предназначен игрушечный автомат?</t>
+  </si>
+  <si>
+    <t>От скольки лет разрешено играть с автоматом орбизами?</t>
+  </si>
+  <si>
+    <t>Какие возрастные ограничения у автомата с гелевыми шариками?</t>
+  </si>
+  <si>
+    <t>По техническим характеристикам данный орбизный автомат рекомендован для детей от 8 лет. Однако при ответственном подходе и постоянном присутствии взрослых можно рассмотреть возможность игры с детьми более младшего возраста. Важно, чтобы ребенок понимал правила безопасности и мог правильно использовать защитные очки.</t>
+  </si>
+  <si>
+    <t>Здравствуйте, стрельба автоматическая?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли автомат автоматический режим стрельбы?</t>
+  </si>
+  <si>
+    <t>Можно ли стрелять очередями из автомата?</t>
+  </si>
+  <si>
+    <t>Есть ли непрерывная стрельба у этого автомата?</t>
+  </si>
+  <si>
+    <t>Автомат стреляет автоматически или по одному выстрелу?</t>
+  </si>
+  <si>
+    <t>Да, в этой модели стрельба автоматическая</t>
+  </si>
+  <si>
+    <t>Сколько он весит?</t>
+  </si>
+  <si>
+    <t>Какой вес у автомата с орбизами?</t>
+  </si>
+  <si>
+    <t>Сколько весит игрушечный автомат?</t>
+  </si>
+  <si>
+    <t>Какая масса у этого автомата?</t>
+  </si>
+  <si>
+    <t>Тяжелый ли автомат для ребенка?</t>
+  </si>
+  <si>
+    <t>Вес автомата составляет 500 грамм.</t>
+  </si>
+  <si>
+    <t>Добрый день а автомат выстрелом лопнет надутый воздушный шарик?</t>
+  </si>
+  <si>
+    <t>Может ли автомат с орбизами пробить воздушный шар?</t>
+  </si>
+  <si>
+    <t>Хватит ли мощности автомата чтобы лопнуть шарик?</t>
+  </si>
+  <si>
+    <t>На каком расстоянии автомат может пробить воздушный шар?</t>
+  </si>
+  <si>
+    <t>Способен ли автомат орбизами разорвать надувной шарик?</t>
+  </si>
+  <si>
+    <t>На расстоянии 10-20 метров автомат должен пробивать надутый воздушный шарик.</t>
+  </si>
+  <si>
+    <t>А у Береты не нужно взводить затвор?</t>
+  </si>
+  <si>
+    <t>Нужно ли взводить затвор у автомата Берета?</t>
+  </si>
+  <si>
+    <t>Требуется ли взвод затвора перед стрельбой?</t>
+  </si>
+  <si>
+    <t>Автомат Берета стреляет без взвода затвора?</t>
+  </si>
+  <si>
+    <t>Как работает механизм стрельбы у Береты?</t>
+  </si>
+  <si>
+    <t>Нет, взводить затвор не нужно. В карточке товара размещено видео, где можно изучить принцип работы и использования автомата.</t>
+  </si>
+  <si>
+    <t>Заряжается дуло и как светится?</t>
+  </si>
+  <si>
+    <t>Как заряжается дуло автомата и какой индикатор?</t>
+  </si>
+  <si>
+    <t>Светится ли дуло во время зарядки?</t>
+  </si>
+  <si>
+    <t>Сколько времени заряжается дуло автомата?</t>
+  </si>
+  <si>
+    <t>Когда горит подсветка в дуле автомата?</t>
+  </si>
+  <si>
+    <t>Поставьте дуло на зарядку - будет светиться красным огоньком. Зарядка занимает около 40 минут, как зарядится - огонек погаснет. Дуло светится только при стрельбе, когда вылетают орбизы.</t>
+  </si>
+  <si>
+    <t>Здравствуйте, купили у вас автомат, а пламегаситель большего диаметра, невозможно затянуть.</t>
+  </si>
+  <si>
+    <t>Пламегаситель не подходит по размеру к автомату</t>
+  </si>
+  <si>
+    <t>Глушитель слишком большой для автомата что делать?</t>
+  </si>
+  <si>
+    <t>Не могу прикрутить пламегаситель к автомату</t>
+  </si>
+  <si>
+    <t>Пламегаситель не накручивается на дуло автомата</t>
+  </si>
+  <si>
+    <t>Глушитель надо раскрутить вначале, потом одеть до конца и закрутить хорошо. Свяжитесь с нами в службе поддержки - пришлем видео, как правильно устанавливать пламегаситель на автомат.</t>
+  </si>
+  <si>
+    <t>Сколько шириной та часть куда цепляется прицел?</t>
+  </si>
+  <si>
+    <t>Какая ширина планки для установки прицела?</t>
+  </si>
+  <si>
+    <t>Сколько миллиметров ширина крепления прицела?</t>
+  </si>
+  <si>
+    <t>Какой размер направляющей для прицела на автомате?</t>
+  </si>
+  <si>
+    <t>Ширина планки Пикатинни на автомате сколько?</t>
+  </si>
+  <si>
+    <t>Ширина планки для крепления прицела стандартная - 27 мм.</t>
+  </si>
+  <si>
+    <t>Есть ли затвор с возвратным механизмом у VECTOR?</t>
+  </si>
+  <si>
+    <t>Имеет ли автомат VECTOR рычажок перезарядки?</t>
+  </si>
+  <si>
+    <t>Нужно ли взводить затвор у орбибол VECTOR?</t>
+  </si>
+  <si>
+    <t>Есть ли имитация перезарядки у автомата VECTOR?</t>
+  </si>
+  <si>
+    <t>Орбибол VECTOR у него есть затвор с возвратным механизмом? (рычажок перезарядки)</t>
+  </si>
+  <si>
+    <t>Нет, в модели нет механизма зарядки патронов и затвора с возвратным механизмом. Нажимая на курок, просто осуществляется выстрел без дополнительных действий по перезарядке.</t>
+  </si>
+  <si>
+    <t>Купили автомат ак-47 на Валберис. Перестал стрелять и заряжать пульки.</t>
+  </si>
+  <si>
+    <t>АК-47 не стреляет и не подает орбизы что проверить?</t>
+  </si>
+  <si>
+    <t>Автомат АК-47 перестал работать после использования</t>
+  </si>
+  <si>
+    <t>Не работает механизм подачи орбизов в АК-47</t>
+  </si>
+  <si>
+    <t>АК-47 сломался и не заряжает пульки в ствол</t>
+  </si>
+  <si>
+    <t>Проверьте следующее: 1. Убедитесь, что крутится моторчик в магазине (передней ручке), куда помещаете орбизы. Снимите видео работы механизма - если мотор не работает, это подтверждение брака. 2. Попробуйте разобрать автомат - возможно внутри застряли орбизы, почистите механизм. 3. Обязательно заряжайте аккумулятор перед игрой 1,5 часа и выращивайте орбизы минимум 4 часа до размера 6-8 мм. Подсохшие орбизы застревают, их нужно снова залить водой и дорастить еще 2 часа.</t>
+  </si>
+  <si>
+    <t>А какие детали сделаны из металла?</t>
+  </si>
+  <si>
+    <t>Что в автомате металлическое а что пластиковое?</t>
+  </si>
+  <si>
+    <t>Какие части автомата изготовлены из металла?</t>
+  </si>
+  <si>
+    <t>Из каких материалов состоит автомат?</t>
+  </si>
+  <si>
+    <t>Металлические ли основные детали автомата?</t>
+  </si>
+  <si>
+    <t>Металлические детали: дуло, ствол. Пластиковые детали: глушитель, магазин, рукоятка, приклад.</t>
+  </si>
+  <si>
+    <t>Здравствуйте, возможно ли на АК-47 ставить какие либо обвесы? Прицел, лазер, фонарь?</t>
+  </si>
+  <si>
+    <t>Можно ли установить прицел на автомат АК-47?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли АК-47 установку дополнительных аксессуаров?</t>
+  </si>
+  <si>
+    <t>Есть ли крепления для обвесов на АК-47?</t>
+  </si>
+  <si>
+    <t>Совместим ли АК-47 с тактическими приспособлениями?</t>
+  </si>
+  <si>
+    <t>Кронштейнов на автомате нет, поэтому установить дополнительные обвесы (прицел, лазер, фонарь) не получится.</t>
+  </si>
+  <si>
+    <t>Затвор двигается во время стрельбы?</t>
+  </si>
+  <si>
+    <t>Работает ли затвор при выстреле из автомата?</t>
+  </si>
+  <si>
+    <t>Имитируется ли движение затвора во время стрельбы?</t>
+  </si>
+  <si>
+    <t>Есть ли подвижный затвор у автомата?</t>
+  </si>
+  <si>
+    <t>Двигается ли затворная группа при стрельбе?</t>
+  </si>
+  <si>
+    <t>Да, затвор двигается во время стрельбы.</t>
+  </si>
+  <si>
+    <t>Он настоящий?</t>
+  </si>
+  <si>
+    <t>Это настоящий автомат или игрушка?</t>
+  </si>
+  <si>
+    <t>Реальное ли это оружие?</t>
+  </si>
+  <si>
+    <t>Автомат боевой или игрушечный?</t>
+  </si>
+  <si>
+    <t>Это копия настоящего оружия?</t>
+  </si>
+  <si>
+    <t>Это настоящий игрушечный автомат с орбизами - скорострельный, с металлическими деталями, реалистичным звуком выстрела и подвижным затвором. Это точная копия настоящего оружия, но предназначена исключительно для игры.</t>
+  </si>
+  <si>
+    <t>Дальность полета по прямой или с учетом наклона?</t>
+  </si>
+  <si>
+    <t>Какая дальность стрельбы автомата по прямой траектории?</t>
+  </si>
+  <si>
+    <t>Увеличивается ли дальность при стрельбе под углом?</t>
+  </si>
+  <si>
+    <t>Сколько метров летят орбизы по прямой линии?</t>
+  </si>
+  <si>
+    <t>На какое расстояние стреляет автомат под наклоном?</t>
+  </si>
+  <si>
+    <t>Дальность полета в этой модели составляет 30-40 метров по прямой. При стрельбе под наклоном дальность увеличивается еще на 3-4 метра.</t>
+  </si>
+  <si>
+    <t>Здравствуйте! а отдача как у настоящего есть?</t>
+  </si>
+  <si>
+    <t>Есть ли отдача при стрельбе из автомата?</t>
+  </si>
+  <si>
+    <t>Чувствуется ли отдача как у настоящего оружия?</t>
+  </si>
+  <si>
+    <t>Имитируется ли отдача при выстреле?</t>
+  </si>
+  <si>
+    <t>Какая отдача у игрушечного автомата?</t>
+  </si>
+  <si>
+    <t>Это игрушечный автомат с орбизами, скорострельный, с металлическими деталями, реалистичным звуком выстрела и подвижным затвором. Поскольку это не огнестрельное оружие, отдача небольшая, но присутствует для реалистичности игры.</t>
+  </si>
+  <si>
+    <t>Здравствуйте подскажите пожалуйста стреляет мощно может сломать руку или стекло?</t>
+  </si>
+  <si>
+    <t>Может ли автомат с орбизами разбить стекло?</t>
+  </si>
+  <si>
+    <t>Безопасен ли автомат может ли нанести травму?</t>
+  </si>
+  <si>
+    <t>Способны ли орбизы причинить вред человеку?</t>
+  </si>
+  <si>
+    <t>Какая мощность у автомата с орбизами?</t>
+  </si>
+  <si>
+    <t>Автоматы с орбизами специально разработаны как безопасное оружие. При попадании в твёрдую поверхность шарик просто лопается, оставляя мокрое пятно. Размер и материал орбизов делает их слишком мягкими для повреждения стекла или нанесения серьезных травм. Единственная важная рекомендация: используйте специальные очки для защиты глаз при игре.</t>
+  </si>
+  <si>
+    <t>Подскажите пожалуйста есть ли большая барабанная обойма?</t>
+  </si>
+  <si>
+    <t>Продается ли барабанный магазин для автомата?</t>
+  </si>
+  <si>
+    <t>Можно ли купить барабанную обойму отдельно?</t>
+  </si>
+  <si>
+    <t>Есть ли в наличии большие магазины для автомата?</t>
+  </si>
+  <si>
+    <t>Доступна ли барабанная обойма для этой модели?</t>
+  </si>
+  <si>
+    <t>Нет, барабанной обоймы нет в наличии.</t>
+  </si>
+  <si>
+    <t>221011247 а эту насадку на АК 47 можно поставить?</t>
+  </si>
+  <si>
+    <t>Совместима ли насадка с артикулом 221011247 с АК-47?</t>
+  </si>
+  <si>
+    <t>Подойдет ли трассерная насадка к автомату АК-47?</t>
+  </si>
+  <si>
+    <t>Можно ли установить эту насадку на АК-47?</t>
+  </si>
+  <si>
+    <t>Совместимость насадки 221011247 с АК-47?</t>
+  </si>
+  <si>
+    <t>Можно поставить эту трассерную насадку страйкбол 14-CCW с адаптером.</t>
+  </si>
+  <si>
+    <t>На АК 47 есть одиночная стрельба и автоматическая?</t>
+  </si>
+  <si>
+    <t>Поддерживает ли АК-47 одиночный режим стрельбы?</t>
+  </si>
+  <si>
+    <t>Можно ли переключать режимы стрельбы на АК-47?</t>
+  </si>
+  <si>
+    <t>Есть ли у АК-47 режим одиночных выстрелов?</t>
+  </si>
+  <si>
+    <t>Какие режимы стрельбы доступны у АК-47?</t>
+  </si>
+  <si>
+    <t>Да, в этой модели есть и одиночная стрельба, и стрельба очередью. Подробная информация об этом указана в описании товара.</t>
+  </si>
+  <si>
+    <t>ОрбиболARP7 здравствуйте насколько точная стрельба?</t>
+  </si>
+  <si>
+    <t>Какая точность стрельбы у автомата ARP7?</t>
+  </si>
+  <si>
+    <t>На сколько метров точно стреляет ARP7?</t>
+  </si>
+  <si>
+    <t>Есть ли отклонения при стрельбе из ARP7?</t>
+  </si>
+  <si>
+    <t>Насколько кучно стреляет автомат ARP7?</t>
+  </si>
+  <si>
+    <t>В этой модели достаточно точная стрельба с очень высоким процентом попаданий и почти без отклонений от цели. Стреляет точно на 20 метров по результатам проведенных тестов. Точность может зависеть от погодных условий (сильный ветер может мешать) и от навыков стрелка.</t>
+  </si>
+  <si>
+    <t>Здравствуйте можно узнать приклад можно регулировать по длине?</t>
+  </si>
+  <si>
+    <t>Регулируется ли приклад автомата по длине?</t>
+  </si>
+  <si>
+    <t>Можно ли изменить длину приклада?</t>
+  </si>
+  <si>
+    <t>Есть ли телескопический приклад у автомата?</t>
+  </si>
+  <si>
+    <t>Приклад выдвижной или фиксированный?</t>
+  </si>
+  <si>
+    <t>В этой модели нет регулировки приклада. Обратите внимание на модель с артикулом WB: 368176578 - в ней есть возможность регулировки приклада с фиксацией.</t>
+  </si>
+  <si>
+    <t>ОрбиболMK3 А на обойме есть кнопка которую нужно нажимать чтоб шары подавались?</t>
+  </si>
+  <si>
+    <t>Есть ли кнопка подачи шаров на обойме MK3?</t>
+  </si>
+  <si>
+    <t>Нужно ли нажимать кнопку для подачи орбизов в MK3?</t>
+  </si>
+  <si>
+    <t>Как включить подачу шаров в автомате MK3?</t>
+  </si>
+  <si>
+    <t>Где находится кнопка активации подачи орбизов в MK3?</t>
+  </si>
+  <si>
+    <t>Нужно снять затвор - кнопка находится с одной стороны автомата на корпусе. Затем поставить рычажок на режим стрельбы очередью или одиночными выстрелами с другой стороны автомата. Если возникнут сложности, обратитесь в службу поддержки - отправим видеоинструкцию и ответим на все вопросы.</t>
+  </si>
+  <si>
+    <t>ОрбиболM4A1 ссылки на кабель зарядки аккумулятора M4A1 new</t>
+  </si>
+  <si>
+    <t>Где купить зарядный кабель для M4A1?</t>
+  </si>
+  <si>
+    <t>Какой артикул зарядки для автомата M4A1?</t>
+  </si>
+  <si>
+    <t>Ссылка на зарядное устройство M4A1</t>
+  </si>
+  <si>
+    <t>Как заказать кабель зарядки для M4A1?</t>
+  </si>
+  <si>
+    <t>Зарядные кабели для M4A1 доступны по следующим ссылкам: https://global.wildberries.ru/catalog/183186358/detail.aspx?targetUrl=SG и https://global.wildberries.ru/catalog/251637811/detail.aspx?targetUrl=SG</t>
+  </si>
+  <si>
+    <t>ВодныйМ505С сильно протекает</t>
+  </si>
+  <si>
+    <t>Что делать если водный автомат M505C протекает?</t>
+  </si>
+  <si>
+    <t>Почему течет водный автомат M505C?</t>
+  </si>
+  <si>
+    <t>Как устранить протечку в водном автомате?</t>
+  </si>
+  <si>
+    <t>Брак ли если водный автомат сильно протекает?</t>
+  </si>
+  <si>
+    <t>Благодарим за обратную связь. По любым возникающим вопросам с протечкой водного автомата обратитесь в службу поддержки для решения проблемы.</t>
+  </si>
+  <si>
+    <t>Протекает пистолет</t>
+  </si>
+  <si>
+    <t>Почему течет водный пистолет?</t>
+  </si>
+  <si>
+    <t>Что делать если из пистолета вытекает вода?</t>
+  </si>
+  <si>
+    <t>Как устранить протечку водного пистолета?</t>
+  </si>
+  <si>
+    <t>Пистолет сильно протекает в чем причина?</t>
+  </si>
+  <si>
+    <t>Рекомендуется набирать воду не сильно опуская ствол пистолета в воду, чтобы он набирал воду понемногу - тогда не будет выливаться из всех отверстий. Также можно набирать воду сразу из бутылки в бак. Если протечка продолжается, обратитесь в службу поддержки для выяснения причины.</t>
+  </si>
+  <si>
+    <t>Здравствуйте а автомат 368181379 у него электрическая подача шаров? или ручная?</t>
+  </si>
+  <si>
+    <t>Какая система подачи орбизов в автомате 368181379?</t>
+  </si>
+  <si>
+    <t>Электрическая ли подача шаров у этой модели?</t>
+  </si>
+  <si>
+    <t>Автоматическая или ручная подача орбизов в автомате?</t>
+  </si>
+  <si>
+    <t>Как работает механизм подачи шаров в этом автомате?</t>
+  </si>
+  <si>
+    <t>В этой модели электрическая подача орбизов с помощью электрического привода из магазина в ствол.</t>
+  </si>
+  <si>
+    <t>Автомат 280 Здравствуйте, а на планку можно установить другие прицелы с таким же креплением и какое там? Picatinny или Weaver?</t>
+  </si>
+  <si>
+    <t>Какой тип крепления для прицела у автомата 280?</t>
+  </si>
+  <si>
+    <t>Планка Пикатинни или Weaver на автомате?</t>
+  </si>
+  <si>
+    <t>Можно ли установить сторонние прицелы на автомат?</t>
+  </si>
+  <si>
+    <t>Совместим ли автомат с прицелами стандарта Picatinny?</t>
+  </si>
+  <si>
+    <t>Да, можно установить любые дополнительные аксессуары (прицелы, коллиматоры), подходящие под стандартное крепление на планке автомата.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2764,10 +4468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9C76FB-0E8B-4191-8625-F60C98342CCE}">
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A644" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A648" sqref="A648"/>
+    <sheetView tabSelected="1" topLeftCell="A1094" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1114" sqref="B1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8017,51 +9721,3651 @@
       </c>
     </row>
     <row r="656" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
+      <c r="A656" s="3" t="s">
         <v>772</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A657" t="s">
+    <row r="657" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A657" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B657" t="s">
+      <c r="B657" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B658" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B659" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B660" s="3" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B661" t="s">
+      <c r="B661" s="3" t="s">
         <v>778</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A667" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B667" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B668" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B669" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A670" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B670" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A671" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B671" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>791</v>
+      </c>
+      <c r="B672" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B673" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B674" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B675" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B676" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>797</v>
+      </c>
+      <c r="B677" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B678" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B679" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B680" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B681" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>803</v>
+      </c>
+      <c r="B682" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B683" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B684" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A685" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B685" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B686" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>809</v>
+      </c>
+      <c r="B687" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B688" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B689" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B690" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B691" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>815</v>
+      </c>
+      <c r="B692" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B693" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A694" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B694" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B695" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B696" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>821</v>
+      </c>
+      <c r="B697" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B698" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B699" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B700" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B701" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>827</v>
+      </c>
+      <c r="B702" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B703" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B704" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B705" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B706" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>833</v>
+      </c>
+      <c r="B707" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B708" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A709" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B709" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B710" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B711" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>839</v>
+      </c>
+      <c r="B712" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B713" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B714" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B715" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B716" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>845</v>
+      </c>
+      <c r="B717" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B718" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B719" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B720" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B721" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>851</v>
+      </c>
+      <c r="B722" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B723" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B724" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B725" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B726" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>857</v>
+      </c>
+      <c r="B727" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B728" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B729" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B730" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B731" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>863</v>
+      </c>
+      <c r="B732" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B733" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B734" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B735" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B736" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>869</v>
+      </c>
+      <c r="B737" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B738" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B739" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B740" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B741" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>875</v>
+      </c>
+      <c r="B742" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B743" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B744" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B745" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B746" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>881</v>
+      </c>
+      <c r="B747" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B748" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B749" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B750" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B751" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>887</v>
+      </c>
+      <c r="B752" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B753" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B754" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B755" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B756" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>893</v>
+      </c>
+      <c r="B757" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B758" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B759" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B760" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B761" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>899</v>
+      </c>
+      <c r="B762" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B763" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B764" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B765" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B766" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>905</v>
+      </c>
+      <c r="B767" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B768" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B769" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B770" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B771" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>911</v>
+      </c>
+      <c r="B772" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B773" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B774" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B775" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B776" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>917</v>
+      </c>
+      <c r="B777" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B778" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B779" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B780" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B781" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>923</v>
+      </c>
+      <c r="B782" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B783" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B784" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B785" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B786" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>929</v>
+      </c>
+      <c r="B787" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B788" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B789" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B790" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B791" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>935</v>
+      </c>
+      <c r="B792" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B793" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B794" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B795" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B796" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>941</v>
+      </c>
+      <c r="B797" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B798" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B799" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B800" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B801" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>947</v>
+      </c>
+      <c r="B802" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B803" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B804" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B805" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B806" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>953</v>
+      </c>
+      <c r="B807" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B808" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B809" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B810" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B811" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>959</v>
+      </c>
+      <c r="B812" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>960</v>
+      </c>
+      <c r="B813" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>961</v>
+      </c>
+      <c r="B814" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>962</v>
+      </c>
+      <c r="B815" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>963</v>
+      </c>
+      <c r="B816" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>965</v>
+      </c>
+      <c r="B817" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>966</v>
+      </c>
+      <c r="B818" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>967</v>
+      </c>
+      <c r="B819" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>968</v>
+      </c>
+      <c r="B820" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>969</v>
+      </c>
+      <c r="B821" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>971</v>
+      </c>
+      <c r="B822" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>972</v>
+      </c>
+      <c r="B823" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>973</v>
+      </c>
+      <c r="B824" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>974</v>
+      </c>
+      <c r="B825" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>975</v>
+      </c>
+      <c r="B826" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>977</v>
+      </c>
+      <c r="B827" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>978</v>
+      </c>
+      <c r="B828" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>979</v>
+      </c>
+      <c r="B829" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>980</v>
+      </c>
+      <c r="B830" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>981</v>
+      </c>
+      <c r="B831" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>983</v>
+      </c>
+      <c r="B832" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>984</v>
+      </c>
+      <c r="B833" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>985</v>
+      </c>
+      <c r="B834" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>986</v>
+      </c>
+      <c r="B835" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>987</v>
+      </c>
+      <c r="B836" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>989</v>
+      </c>
+      <c r="B837" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>990</v>
+      </c>
+      <c r="B838" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>991</v>
+      </c>
+      <c r="B839" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>992</v>
+      </c>
+      <c r="B840" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>993</v>
+      </c>
+      <c r="B841" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>995</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>996</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>997</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>998</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>999</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1318</v>
       </c>
     </row>
   </sheetData>
